--- a/2023-01/PSE-2023-01-04.xlsx
+++ b/2023-01/PSE-2023-01-04.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B691C2-BDEC-4F35-B825-86E9D0F130C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB2BE08-D593-48F1-A887-409B4AE91811}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2487,19 +2487,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2816,46 +2816,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:XFD235"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6.5</v>
+        <v>7.23</v>
       </c>
       <c r="C1" s="2">
         <v>7.23</v>
       </c>
       <c r="D1" s="2">
-        <v>7.23</v>
+        <v>6.65</v>
       </c>
       <c r="E1" s="2">
-        <v>6.65</v>
-      </c>
-      <c r="F1" s="2">
         <v>6.95</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>98</v>
+        <v>93.2</v>
       </c>
       <c r="C2" s="4">
         <v>93.2</v>
@@ -2867,16 +2864,13 @@
         <v>93.2</v>
       </c>
       <c r="F2" s="4">
-        <v>93.2</v>
-      </c>
-      <c r="G2" s="4">
         <v>100</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2893,16 +2887,13 @@
         <v>101.1</v>
       </c>
       <c r="F3" s="4">
-        <v>101.1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2919,16 +2910,13 @@
         <v>1.61</v>
       </c>
       <c r="F4" s="4">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2936,51 +2924,45 @@
         <v>7.55</v>
       </c>
       <c r="C5" s="4">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="D5" s="4">
-        <v>7.57</v>
+        <v>7.4</v>
       </c>
       <c r="E5" s="4">
         <v>7.4</v>
       </c>
-      <c r="F5" s="4">
-        <v>7.4</v>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C6" s="4">
-        <v>2.0699999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="D6" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E6" s="4">
         <v>2.09</v>
       </c>
-      <c r="E6" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.09</v>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2997,42 +2979,36 @@
         <v>3.53</v>
       </c>
       <c r="F7" s="4">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>7.3</v>
+        <v>7.21</v>
       </c>
       <c r="C8" s="4">
+        <v>7.38</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="E8" s="4">
         <v>7.21</v>
       </c>
-      <c r="D8" s="4">
-        <v>7.38</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7.13</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7.21</v>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3048,17 +3024,14 @@
       <c r="E9" s="4">
         <v>7.52</v>
       </c>
-      <c r="F9" s="4">
-        <v>7.52</v>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3066,25 +3039,22 @@
         <v>687.5</v>
       </c>
       <c r="C10" s="4">
-        <v>687.5</v>
+        <v>704.5</v>
       </c>
       <c r="D10" s="4">
-        <v>704.5</v>
+        <v>687</v>
       </c>
       <c r="E10" s="4">
         <v>687</v>
       </c>
-      <c r="F10" s="4">
-        <v>687</v>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3101,42 +3071,36 @@
         <v>1.32</v>
       </c>
       <c r="F11" s="4">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="D12" s="4">
         <v>7.99</v>
       </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.4</v>
-      </c>
       <c r="E12" s="4">
-        <v>7.99</v>
-      </c>
-      <c r="F12" s="4">
         <v>8.3699999999999992</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3153,16 +3117,13 @@
         <v>500</v>
       </c>
       <c r="F13" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -3178,22 +3139,19 @@
       <c r="E14" s="4">
         <v>480</v>
       </c>
-      <c r="F14" s="4">
-        <v>480</v>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="4">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C15" s="4">
         <v>0.77</v>
@@ -3204,17 +3162,14 @@
       <c r="E15" s="4">
         <v>0.77</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.77</v>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -3222,77 +3177,68 @@
         <v>57.7</v>
       </c>
       <c r="C16" s="4">
-        <v>57.7</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4">
-        <v>59</v>
+        <v>57.45</v>
       </c>
       <c r="E16" s="4">
-        <v>57.45</v>
-      </c>
-      <c r="F16" s="4">
         <v>58.9</v>
       </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="4">
+        <v>11.98</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>11.94</v>
+      </c>
+      <c r="E17" s="4">
         <v>11.96</v>
       </c>
-      <c r="C17" s="4">
-        <v>11.98</v>
-      </c>
-      <c r="D17" s="4">
-        <v>12.16</v>
-      </c>
-      <c r="E17" s="4">
-        <v>11.94</v>
-      </c>
-      <c r="F17" s="4">
-        <v>11.96</v>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="4">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="C18" s="4">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.55000000000000004</v>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3309,16 +3255,13 @@
         <v>102.3</v>
       </c>
       <c r="F19" s="4">
-        <v>102.3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3335,16 +3278,13 @@
         <v>102</v>
       </c>
       <c r="F20" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3361,16 +3301,13 @@
         <v>499</v>
       </c>
       <c r="F21" s="4">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3387,42 +3324,36 @@
         <v>5.89</v>
       </c>
       <c r="F22" s="4">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="4">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C23" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="D23" s="4">
         <v>30.5</v>
       </c>
-      <c r="D23" s="4">
-        <v>31.4</v>
-      </c>
       <c r="E23" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="F23" s="4">
         <v>31.25</v>
       </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -3430,103 +3361,91 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="C24" s="4">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D24" s="4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D24" s="4">
-        <v>0.24099999999999999</v>
-      </c>
       <c r="E24" s="4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F24" s="4">
         <v>0.24</v>
       </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="D25" s="4">
         <v>3.05</v>
       </c>
-      <c r="C25" s="4">
-        <v>3.06</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3.15</v>
-      </c>
       <c r="E25" s="4">
-        <v>3.05</v>
-      </c>
-      <c r="F25" s="4">
         <v>3.11</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4">
-        <v>7.36</v>
+        <v>7.3</v>
       </c>
       <c r="C26" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="D26" s="4">
         <v>7.3</v>
       </c>
-      <c r="D26" s="4">
-        <v>7.74</v>
-      </c>
       <c r="E26" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="F26" s="4">
         <v>7.71</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="4">
-        <v>9.4</v>
+        <v>9.39</v>
       </c>
       <c r="C27" s="4">
         <v>9.39</v>
       </c>
       <c r="D27" s="4">
-        <v>9.39</v>
+        <v>9</v>
       </c>
       <c r="E27" s="4">
         <v>9</v>
       </c>
-      <c r="F27" s="4">
-        <v>9</v>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -3534,77 +3453,68 @@
         <v>35.25</v>
       </c>
       <c r="C28" s="4">
-        <v>35.25</v>
+        <v>35.6</v>
       </c>
       <c r="D28" s="4">
-        <v>35.6</v>
+        <v>34.9</v>
       </c>
       <c r="E28" s="4">
-        <v>34.9</v>
-      </c>
-      <c r="F28" s="4">
         <v>35</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="4">
-        <v>470</v>
+        <v>470.4</v>
       </c>
       <c r="C29" s="4">
         <v>470.4</v>
       </c>
       <c r="D29" s="4">
-        <v>470.4</v>
+        <v>470</v>
       </c>
       <c r="E29" s="4">
         <v>470</v>
       </c>
-      <c r="F29" s="4">
-        <v>470</v>
+      <c r="F29" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D30" s="4">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E30" s="4">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.20300000000000001</v>
+      <c r="F30" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
@@ -3612,56 +3522,50 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F31" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="F31" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="4">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C32" s="4">
         <v>0.66</v>
       </c>
       <c r="D32" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E32" s="4">
         <v>0.66</v>
       </c>
-      <c r="E32" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.66</v>
+      <c r="F32" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="4">
-        <v>12.7</v>
+        <v>12.66</v>
       </c>
       <c r="C33" s="4">
         <v>12.66</v>
@@ -3672,43 +3576,37 @@
       <c r="E33" s="4">
         <v>12.66</v>
       </c>
-      <c r="F33" s="4">
-        <v>12.66</v>
+      <c r="F33" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="E34" s="4">
         <v>2.08</v>
       </c>
-      <c r="C34" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>2.13</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2.08</v>
+      <c r="F34" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
@@ -3725,16 +3623,13 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="F35" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -3742,51 +3637,45 @@
         <v>1</v>
       </c>
       <c r="C36" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
-        <v>1.05</v>
-      </c>
       <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
         <v>1.02</v>
       </c>
+      <c r="F36" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
         <v>35.200000000000003</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="E37" s="4">
         <v>35</v>
       </c>
-      <c r="D37" s="4">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E37" s="4">
-        <v>34.9</v>
-      </c>
-      <c r="F37" s="4">
-        <v>35</v>
+      <c r="F37" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
@@ -3794,77 +3683,68 @@
         <v>1.67</v>
       </c>
       <c r="C38" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D38" s="4">
         <v>1.67</v>
       </c>
-      <c r="D38" s="4">
-        <v>1.75</v>
-      </c>
       <c r="E38" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="F38" s="4">
         <v>1.72</v>
       </c>
+      <c r="F38" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="4">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="C39" s="4">
-        <v>3.84</v>
+        <v>3.9</v>
       </c>
       <c r="D39" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="E39" s="4">
         <v>3.9</v>
       </c>
-      <c r="E39" s="4">
-        <v>3.69</v>
-      </c>
-      <c r="F39" s="4">
-        <v>3.9</v>
+      <c r="F39" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="4">
-        <v>13.98</v>
+        <v>13.9</v>
       </c>
       <c r="C40" s="4">
         <v>13.9</v>
       </c>
       <c r="D40" s="4">
-        <v>13.9</v>
+        <v>13.78</v>
       </c>
       <c r="E40" s="4">
         <v>13.78</v>
       </c>
-      <c r="F40" s="4">
-        <v>13.78</v>
+      <c r="F40" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>99</v>
       </c>
@@ -3872,25 +3752,22 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="C41" s="4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D41" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="D41" s="4">
-        <v>0.36499999999999999</v>
-      </c>
       <c r="E41" s="4">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="F41" s="4">
         <v>0.36</v>
       </c>
+      <c r="F41" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>102</v>
       </c>
@@ -3907,16 +3784,13 @@
         <v>0.35</v>
       </c>
       <c r="F42" s="4">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>103</v>
       </c>
@@ -3933,16 +3807,13 @@
         <v>41.45</v>
       </c>
       <c r="F43" s="4">
-        <v>41.45</v>
-      </c>
-      <c r="G43" s="4">
         <v>200</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -3953,22 +3824,19 @@
         <v>2.54</v>
       </c>
       <c r="D44" s="4">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="E44" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F44" s="4">
         <v>2.52</v>
       </c>
+      <c r="F44" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>107</v>
       </c>
@@ -3976,77 +3844,68 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C45" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E45" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D45" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.57999999999999996</v>
+      <c r="F45" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B46" s="4">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="C46" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="D46" s="4">
         <v>4.12</v>
       </c>
-      <c r="D46" s="4">
-        <v>4.34</v>
-      </c>
       <c r="E46" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="F46" s="4">
         <v>4.2</v>
       </c>
+      <c r="F46" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G46" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="4">
-        <v>4.07</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C47" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="D47" s="4">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>4.17</v>
       </c>
-      <c r="E47" s="4">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F47" s="4">
-        <v>4.17</v>
+      <c r="F47" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>116</v>
       </c>
@@ -4063,16 +3922,13 @@
         <v>7.92</v>
       </c>
       <c r="F48" s="4">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>117</v>
       </c>
@@ -4089,68 +3945,59 @@
         <v>23.3</v>
       </c>
       <c r="F49" s="4">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="4">
-        <v>107.9</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4">
-        <v>109</v>
+        <v>111.9</v>
       </c>
       <c r="D50" s="4">
-        <v>111.9</v>
+        <v>108.7</v>
       </c>
       <c r="E50" s="4">
-        <v>108.7</v>
-      </c>
-      <c r="F50" s="4">
         <v>111.5</v>
       </c>
+      <c r="F50" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B51" s="4">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="C51" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="D51" s="4">
         <v>1.22</v>
       </c>
-      <c r="D51" s="4">
-        <v>1.32</v>
-      </c>
       <c r="E51" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="F51" s="4">
         <v>1.31</v>
       </c>
+      <c r="F51" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G51" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>124</v>
       </c>
@@ -4167,16 +4014,13 @@
         <v>662</v>
       </c>
       <c r="F52" s="4">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="G52" s="4">
         <v>0</v>
       </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>125</v>
       </c>
@@ -4193,68 +4037,59 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F53" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
       </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B54" s="4">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="C54" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="D54" s="4">
         <v>1.42</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>1.46</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1.46</v>
+      <c r="F54" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="4">
-        <v>8.0500000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="C55" s="4">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="D55" s="4">
-        <v>8.5</v>
+        <v>8.09</v>
       </c>
       <c r="E55" s="4">
-        <v>8.09</v>
-      </c>
-      <c r="F55" s="4">
         <v>8.49</v>
       </c>
+      <c r="F55" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="G55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>132</v>
       </c>
@@ -4271,16 +4106,13 @@
         <v>52</v>
       </c>
       <c r="F56" s="4">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>133</v>
       </c>
@@ -4296,74 +4128,65 @@
       <c r="E57" s="4">
         <v>7.75</v>
       </c>
-      <c r="F57" s="4">
-        <v>7.75</v>
+      <c r="F57" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B58" s="4">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C58" s="4">
-        <v>98.8</v>
+        <v>100.9</v>
       </c>
       <c r="D58" s="4">
-        <v>100.9</v>
+        <v>98.3</v>
       </c>
       <c r="E58" s="4">
         <v>98.3</v>
       </c>
-      <c r="F58" s="4">
-        <v>98.3</v>
+      <c r="F58" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="4">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="C59" s="4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="D59" s="4">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E59" s="4">
         <v>0.72</v>
       </c>
-      <c r="F59" s="4">
-        <v>0.72</v>
+      <c r="F59" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B60" s="4">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="C60" s="4">
         <v>101</v>
@@ -4374,17 +4197,14 @@
       <c r="E60" s="4">
         <v>101</v>
       </c>
-      <c r="F60" s="4">
-        <v>101</v>
+      <c r="F60" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>145</v>
       </c>
@@ -4392,51 +4212,45 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C61" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D61" s="4">
-        <v>0.28499999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="E61" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="F61" s="4">
         <v>0.28000000000000003</v>
       </c>
+      <c r="F61" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H61" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B62" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D62" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C62" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="D62" s="4">
-        <v>1.22</v>
-      </c>
       <c r="E62" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F62" s="4">
         <v>1.21</v>
       </c>
+      <c r="F62" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>151</v>
       </c>
@@ -4453,16 +4267,13 @@
         <v>32</v>
       </c>
       <c r="F63" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G63" s="4">
         <v>0</v>
       </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>152</v>
       </c>
@@ -4479,16 +4290,13 @@
         <v>32.4</v>
       </c>
       <c r="F64" s="4">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>153</v>
       </c>
@@ -4505,21 +4313,18 @@
         <v>9.5</v>
       </c>
       <c r="F65" s="4">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="G65" s="4">
         <v>0</v>
       </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B66" s="4">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="C66" s="4">
         <v>0.66</v>
@@ -4530,17 +4335,14 @@
       <c r="E66" s="4">
         <v>0.66</v>
       </c>
-      <c r="F66" s="4">
-        <v>0.66</v>
+      <c r="F66" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H66" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>157</v>
       </c>
@@ -4548,51 +4350,45 @@
         <v>38.299999999999997</v>
       </c>
       <c r="C67" s="4">
-        <v>38.299999999999997</v>
+        <v>39</v>
       </c>
       <c r="D67" s="4">
-        <v>39</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E67" s="4">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F67" s="4">
         <v>38.799999999999997</v>
       </c>
+      <c r="F67" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="G67" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H67" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B68" s="4">
-        <v>38.200000000000003</v>
+        <v>38.15</v>
       </c>
       <c r="C68" s="4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D68" s="4">
         <v>38.15</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>38.299999999999997</v>
       </c>
-      <c r="E68" s="4">
-        <v>38.15</v>
-      </c>
-      <c r="F68" s="4">
-        <v>38.299999999999997</v>
+      <c r="F68" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>161</v>
       </c>
@@ -4608,17 +4404,14 @@
       <c r="E69" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F69" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H69" s="4">
+      <c r="G69" s="4">
         <v>790</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>163</v>
       </c>
@@ -4635,16 +4428,13 @@
         <v>6.5</v>
       </c>
       <c r="F70" s="4">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G70" s="4">
         <v>0</v>
       </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>164</v>
       </c>
@@ -4661,42 +4451,36 @@
         <v>6.12</v>
       </c>
       <c r="F71" s="4">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="G71" s="4">
         <v>0</v>
       </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B72" s="4">
+        <v>27.45</v>
+      </c>
+      <c r="C72" s="4">
         <v>27.5</v>
       </c>
-      <c r="C72" s="4">
+      <c r="D72" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="E72" s="4">
         <v>27.45</v>
       </c>
-      <c r="D72" s="4">
-        <v>27.5</v>
-      </c>
-      <c r="E72" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="F72" s="4">
-        <v>27.45</v>
+      <c r="F72" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H72" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>168</v>
       </c>
@@ -4704,51 +4488,45 @@
         <v>0.61</v>
       </c>
       <c r="C73" s="4">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D73" s="4">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="E73" s="4">
         <v>0.6</v>
       </c>
-      <c r="F73" s="4">
-        <v>0.6</v>
+      <c r="F73" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B74" s="4">
+        <v>16.82</v>
+      </c>
+      <c r="C74" s="4">
         <v>17.18</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>16.82</v>
       </c>
-      <c r="D74" s="4">
-        <v>17.18</v>
-      </c>
       <c r="E74" s="4">
-        <v>16.82</v>
-      </c>
-      <c r="F74" s="4">
         <v>17.16</v>
       </c>
+      <c r="F74" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="G74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H74" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>173</v>
       </c>
@@ -4765,42 +4543,36 @@
         <v>150</v>
       </c>
       <c r="F75" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G75" s="4">
         <v>0</v>
       </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B76" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="C76" s="4">
         <v>2.77</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E76" s="4">
         <v>2.72</v>
       </c>
-      <c r="D76" s="4">
-        <v>2.77</v>
-      </c>
-      <c r="E76" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="F76" s="4">
-        <v>2.72</v>
+      <c r="F76" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H76" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4808,51 +4580,45 @@
         <v>25.7</v>
       </c>
       <c r="C77" s="4">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D77" s="4">
-        <v>26.1</v>
+        <v>24.5</v>
       </c>
       <c r="E77" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="F77" s="4">
         <v>25.8</v>
       </c>
+      <c r="F77" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="G77" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H77" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B78" s="4">
-        <v>15.46</v>
+        <v>15.7</v>
       </c>
       <c r="C78" s="4">
-        <v>15.7</v>
+        <v>16.98</v>
       </c>
       <c r="D78" s="4">
-        <v>16.98</v>
+        <v>15.6</v>
       </c>
       <c r="E78" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F78" s="4">
         <v>16.8</v>
       </c>
+      <c r="F78" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="G78" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H78" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>183</v>
       </c>
@@ -4869,16 +4635,13 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="F79" s="4">
-        <v>0.21199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
       </c>
-      <c r="H79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>184</v>
       </c>
@@ -4894,17 +4657,14 @@
       <c r="E80" s="4">
         <v>3.21</v>
       </c>
-      <c r="F80" s="4">
-        <v>3.21</v>
+      <c r="F80" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H80" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>187</v>
       </c>
@@ -4912,51 +4672,45 @@
         <v>4.7</v>
       </c>
       <c r="C81" s="4">
-        <v>4.7</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="D81" s="4">
-        <v>4.7699999999999996</v>
+        <v>4.67</v>
       </c>
       <c r="E81" s="4">
-        <v>4.67</v>
-      </c>
-      <c r="F81" s="4">
         <v>4.72</v>
       </c>
+      <c r="F81" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="G81" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H81" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B82" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C82" s="4">
         <v>0.38500000000000001</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <v>0.375</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E82" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0.38500000000000001</v>
+      <c r="F82" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H82" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>193</v>
       </c>
@@ -4973,68 +4727,59 @@
         <v>101.8</v>
       </c>
       <c r="F83" s="4">
-        <v>101.8</v>
+        <v>0</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
       </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B84" s="4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="C84" s="4">
         <v>3.5</v>
       </c>
       <c r="D84" s="4">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="E84" s="4">
-        <v>3.26</v>
-      </c>
-      <c r="F84" s="4">
         <v>3.49</v>
       </c>
+      <c r="F84" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="G84" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H84" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B85" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D85" s="4">
         <v>2.29</v>
       </c>
-      <c r="C85" s="4">
+      <c r="E85" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D85" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E85" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="F85" s="4">
-        <v>2.2999999999999998</v>
+      <c r="F85" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>199</v>
       </c>
@@ -5042,25 +4787,22 @@
         <v>1.54</v>
       </c>
       <c r="C86" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="E86" s="4">
         <v>1.54</v>
       </c>
-      <c r="D86" s="4">
-        <v>1.55</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="F86" s="4">
-        <v>1.54</v>
+      <c r="F86" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H86" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>202</v>
       </c>
@@ -5077,42 +4819,36 @@
         <v>8.49</v>
       </c>
       <c r="F87" s="4">
-        <v>8.49</v>
+        <v>0</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
       </c>
-      <c r="H87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B88" s="4">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="C88" s="4">
         <v>0.98</v>
       </c>
       <c r="D88" s="4">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="E88" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="F88" s="4">
         <v>0.95</v>
       </c>
+      <c r="F88" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="G88" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H88" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>206</v>
       </c>
@@ -5129,16 +4865,13 @@
         <v>0.33</v>
       </c>
       <c r="F89" s="4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
       </c>
-      <c r="H89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="3" t="s">
         <v>207</v>
       </c>
@@ -5149,48 +4882,42 @@
         <v>6.72</v>
       </c>
       <c r="D90" s="4">
-        <v>6.72</v>
+        <v>6.56</v>
       </c>
       <c r="E90" s="4">
-        <v>6.56</v>
-      </c>
-      <c r="F90" s="4">
         <v>6.6</v>
       </c>
+      <c r="F90" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="G90" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H90" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="4">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="C91" s="4">
         <v>1.3</v>
       </c>
       <c r="D91" s="4">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="E91" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="F91" s="4">
         <v>1.29</v>
       </c>
+      <c r="F91" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="G91" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:7">
       <c r="A92" s="3" t="s">
         <v>213</v>
       </c>
@@ -5207,16 +4934,13 @@
         <v>97.55</v>
       </c>
       <c r="F92" s="4">
-        <v>97.55</v>
-      </c>
-      <c r="G92" s="4">
         <v>500</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="G92" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:7">
       <c r="A93" s="3" t="s">
         <v>215</v>
       </c>
@@ -5224,51 +4948,45 @@
         <v>14.18</v>
       </c>
       <c r="C93" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D93" s="4">
         <v>14.18</v>
-      </c>
-      <c r="D93" s="4">
-        <v>14.2</v>
       </c>
       <c r="E93" s="4">
         <v>14.18</v>
       </c>
-      <c r="F93" s="4">
-        <v>14.18</v>
+      <c r="F93" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H93" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B94" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C94" s="4">
         <v>3.6</v>
       </c>
       <c r="D94" s="4">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="E94" s="4">
         <v>3.32</v>
       </c>
-      <c r="F94" s="4">
-        <v>3.32</v>
+      <c r="F94" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H94" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>221</v>
       </c>
@@ -5285,16 +5003,13 @@
         <v>3.16</v>
       </c>
       <c r="F95" s="4">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="G95" s="4">
         <v>0</v>
       </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="3" t="s">
         <v>222</v>
       </c>
@@ -5302,30 +5017,27 @@
         <v>2.81</v>
       </c>
       <c r="C96" s="4">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="D96" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="E96" s="4">
         <v>2.94</v>
       </c>
-      <c r="E96" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2.94</v>
+      <c r="F96" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B97" s="4">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="C97" s="4">
         <v>3.99</v>
@@ -5336,17 +5048,14 @@
       <c r="E97" s="4">
         <v>3.99</v>
       </c>
-      <c r="F97" s="4">
-        <v>3.99</v>
+      <c r="F97" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
         <v>227</v>
       </c>
@@ -5354,25 +5063,22 @@
         <v>11.64</v>
       </c>
       <c r="C98" s="4">
-        <v>11.64</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4">
-        <v>12</v>
+        <v>11.56</v>
       </c>
       <c r="E98" s="4">
-        <v>11.56</v>
-      </c>
-      <c r="F98" s="4">
         <v>11.8</v>
       </c>
+      <c r="F98" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="G98" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H98" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
         <v>230</v>
       </c>
@@ -5388,17 +5094,14 @@
       <c r="E99" s="5">
         <v>1400</v>
       </c>
-      <c r="F99" s="5">
-        <v>1400</v>
+      <c r="F99" s="4">
+        <v>0</v>
       </c>
       <c r="G99" s="4">
         <v>0</v>
       </c>
-      <c r="H99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="3" t="s">
         <v>231</v>
       </c>
@@ -5415,16 +5118,13 @@
         <v>10</v>
       </c>
       <c r="F100" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G100" s="4">
         <v>0</v>
       </c>
-      <c r="H100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="3" t="s">
         <v>232</v>
       </c>
@@ -5441,16 +5141,13 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="F101" s="4">
-        <v>9.7100000000000009</v>
+        <v>0</v>
       </c>
       <c r="G101" s="4">
         <v>0</v>
       </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="3" t="s">
         <v>233</v>
       </c>
@@ -5461,22 +5158,19 @@
         <v>6.71</v>
       </c>
       <c r="D102" s="4">
+        <v>6.69</v>
+      </c>
+      <c r="E102" s="4">
         <v>6.71</v>
       </c>
-      <c r="E102" s="4">
-        <v>6.69</v>
-      </c>
-      <c r="F102" s="4">
-        <v>6.71</v>
+      <c r="F102" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="H102" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
         <v>236</v>
       </c>
@@ -5493,42 +5187,36 @@
         <v>2.86</v>
       </c>
       <c r="F103" s="4">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="G103" s="4">
         <v>0</v>
       </c>
-      <c r="H103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B104" s="4">
-        <v>8.07</v>
+        <v>8.11</v>
       </c>
       <c r="C104" s="4">
-        <v>8.11</v>
+        <v>8.26</v>
       </c>
       <c r="D104" s="4">
-        <v>8.26</v>
+        <v>8.09</v>
       </c>
       <c r="E104" s="4">
-        <v>8.09</v>
-      </c>
-      <c r="F104" s="4">
         <v>8.15</v>
       </c>
+      <c r="F104" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="G104" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H104" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
         <v>240</v>
       </c>
@@ -5545,42 +5233,36 @@
         <v>10.25</v>
       </c>
       <c r="F105" s="4">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
       </c>
-      <c r="H105" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B106" s="4">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="C106" s="4">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="D106" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E106" s="4">
         <v>1.38</v>
       </c>
-      <c r="E106" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="F106" s="4">
-        <v>1.38</v>
+      <c r="F106" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H106" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
         <v>244</v>
       </c>
@@ -5597,16 +5279,13 @@
         <v>17</v>
       </c>
       <c r="F107" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G107" s="4">
         <v>0</v>
       </c>
-      <c r="H107" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
         <v>245</v>
       </c>
@@ -5623,16 +5302,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F108" s="4">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
       </c>
-      <c r="H108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
         <v>246</v>
       </c>
@@ -5640,30 +5316,27 @@
         <v>2.85</v>
       </c>
       <c r="C109" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="D109" s="4">
         <v>2.85</v>
       </c>
-      <c r="D109" s="4">
-        <v>2.97</v>
-      </c>
       <c r="E109" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="F109" s="4">
         <v>2.9</v>
       </c>
+      <c r="F109" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="G109" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H109" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B110" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C110" s="4">
         <v>96</v>
@@ -5675,42 +5348,36 @@
         <v>96</v>
       </c>
       <c r="F110" s="4">
-        <v>96</v>
-      </c>
-      <c r="G110" s="4">
         <v>140</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B111" s="4">
+        <v>100</v>
+      </c>
+      <c r="C111" s="4">
         <v>102</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111" s="4">
         <v>100</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>102</v>
       </c>
-      <c r="E111" s="4">
-        <v>100</v>
-      </c>
       <c r="F111" s="4">
-        <v>102</v>
-      </c>
-      <c r="G111" s="4">
         <v>150</v>
       </c>
-      <c r="H111" s="4" t="s">
+      <c r="G111" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
         <v>253</v>
       </c>
@@ -5727,120 +5394,105 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F112" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="G112" s="4">
         <v>0</v>
       </c>
-      <c r="H112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B113" s="4">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="C113" s="4">
-        <v>0.186</v>
+        <v>0.19</v>
       </c>
       <c r="D113" s="4">
+        <v>0.183</v>
+      </c>
+      <c r="E113" s="4">
         <v>0.19</v>
       </c>
-      <c r="E113" s="4">
-        <v>0.183</v>
-      </c>
-      <c r="F113" s="4">
-        <v>0.19</v>
+      <c r="F113" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H113" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B114" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C114" s="4">
         <v>20.6</v>
       </c>
-      <c r="C114" s="4">
+      <c r="D114" s="4">
         <v>20.2</v>
       </c>
-      <c r="D114" s="4">
-        <v>20.6</v>
-      </c>
       <c r="E114" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="F114" s="4">
         <v>20.55</v>
       </c>
+      <c r="F114" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="G114" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H114" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B115" s="4">
-        <v>14.52</v>
+        <v>14.74</v>
       </c>
       <c r="C115" s="4">
-        <v>14.74</v>
+        <v>14.94</v>
       </c>
       <c r="D115" s="4">
-        <v>14.94</v>
+        <v>14</v>
       </c>
       <c r="E115" s="4">
-        <v>14</v>
-      </c>
-      <c r="F115" s="4">
         <v>14.4</v>
       </c>
+      <c r="F115" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="G115" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H115" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B116" s="4">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="C116" s="4">
         <v>0.89</v>
       </c>
       <c r="D116" s="4">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E116" s="4">
         <v>0.85</v>
       </c>
-      <c r="F116" s="4">
-        <v>0.85</v>
+      <c r="F116" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H116" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" s="3" t="s">
         <v>266</v>
       </c>
@@ -5851,22 +5503,19 @@
         <v>0.255</v>
       </c>
       <c r="D117" s="4">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="E117" s="4">
         <v>0.25</v>
       </c>
-      <c r="F117" s="4">
-        <v>0.25</v>
+      <c r="F117" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H117" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
         <v>268</v>
       </c>
@@ -5874,25 +5523,22 @@
         <v>6.79</v>
       </c>
       <c r="C118" s="4">
-        <v>6.79</v>
+        <v>6.84</v>
       </c>
       <c r="D118" s="4">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="E118" s="4">
-        <v>6.73</v>
-      </c>
-      <c r="F118" s="4">
         <v>6.83</v>
       </c>
+      <c r="F118" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="G118" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H118" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
         <v>270</v>
       </c>
@@ -5909,42 +5555,36 @@
         <v>0.72</v>
       </c>
       <c r="F119" s="4">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G119" s="4">
         <v>0</v>
       </c>
-      <c r="H119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B120" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="C120" s="4">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="D120" s="4">
         <v>38.1</v>
       </c>
-      <c r="C120" s="4">
-        <v>38.5</v>
-      </c>
-      <c r="D120" s="4">
-        <v>39.049999999999997</v>
-      </c>
       <c r="E120" s="4">
-        <v>38.1</v>
-      </c>
-      <c r="F120" s="4">
         <v>38.6</v>
       </c>
+      <c r="F120" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="G120" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H120" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
         <v>274</v>
       </c>
@@ -5960,17 +5600,14 @@
       <c r="E121" s="5">
         <v>1011</v>
       </c>
-      <c r="F121" s="5">
-        <v>1011</v>
+      <c r="F121" s="4">
+        <v>0</v>
       </c>
       <c r="G121" s="4">
         <v>0</v>
       </c>
-      <c r="H121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="3" t="s">
         <v>275</v>
       </c>
@@ -5986,17 +5623,14 @@
       <c r="E122" s="5">
         <v>1005</v>
       </c>
-      <c r="F122" s="5">
-        <v>1005</v>
+      <c r="F122" s="4">
+        <v>0</v>
       </c>
       <c r="G122" s="4">
         <v>0</v>
       </c>
-      <c r="H122" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
         <v>276</v>
       </c>
@@ -6004,25 +5638,22 @@
         <v>0.62</v>
       </c>
       <c r="C123" s="4">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="D123" s="4">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="E123" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F123" s="4">
         <v>0.65</v>
       </c>
+      <c r="F123" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="G123" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H123" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
         <v>279</v>
       </c>
@@ -6039,16 +5670,13 @@
         <v>6.4</v>
       </c>
       <c r="F124" s="4">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="G124" s="4">
         <v>0</v>
       </c>
-      <c r="H124" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
         <v>280</v>
       </c>
@@ -6056,25 +5684,22 @@
         <v>2.41</v>
       </c>
       <c r="C125" s="4">
-        <v>2.41</v>
+        <v>2.96</v>
       </c>
       <c r="D125" s="4">
-        <v>2.96</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E125" s="4">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F125" s="4">
         <v>2.82</v>
       </c>
+      <c r="F125" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="G125" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H125" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
         <v>283</v>
       </c>
@@ -6090,17 +5715,14 @@
       <c r="E126" s="4">
         <v>549.5</v>
       </c>
-      <c r="F126" s="4">
-        <v>549.5</v>
+      <c r="F126" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H126" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
         <v>286</v>
       </c>
@@ -6117,42 +5739,36 @@
         <v>3.66</v>
       </c>
       <c r="F127" s="4">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
       </c>
-      <c r="H127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B128" s="4">
-        <v>16.68</v>
+        <v>16.7</v>
       </c>
       <c r="C128" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="D128" s="4">
         <v>16.7</v>
       </c>
-      <c r="D128" s="4">
-        <v>17.5</v>
-      </c>
       <c r="E128" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="F128" s="4">
         <v>17.3</v>
       </c>
+      <c r="F128" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="G128" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H128" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
         <v>290</v>
       </c>
@@ -6169,16 +5785,13 @@
         <v>100.4</v>
       </c>
       <c r="F129" s="4">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="G129" s="4">
         <v>0</v>
       </c>
-      <c r="H129" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>291</v>
       </c>
@@ -6186,25 +5799,22 @@
         <v>5.61</v>
       </c>
       <c r="C130" s="4">
-        <v>5.61</v>
+        <v>5.65</v>
       </c>
       <c r="D130" s="4">
-        <v>5.65</v>
+        <v>5.5</v>
       </c>
       <c r="E130" s="4">
         <v>5.5</v>
       </c>
-      <c r="F130" s="4">
-        <v>5.5</v>
+      <c r="F130" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="H130" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>294</v>
       </c>
@@ -6221,16 +5831,13 @@
         <v>2.1</v>
       </c>
       <c r="F131" s="4">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="4">
         <v>0</v>
       </c>
-      <c r="H131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
         <v>295</v>
       </c>
@@ -6247,16 +5854,13 @@
         <v>1.88</v>
       </c>
       <c r="F132" s="4">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="G132" s="4">
         <v>0</v>
       </c>
-      <c r="H132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>296</v>
       </c>
@@ -6267,74 +5871,65 @@
         <v>0.89</v>
       </c>
       <c r="D133" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E133" s="4">
         <v>0.89</v>
       </c>
-      <c r="E133" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="F133" s="4">
-        <v>0.89</v>
+      <c r="F133" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H133" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B134" s="4">
-        <v>101</v>
+        <v>101.8</v>
       </c>
       <c r="C134" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="D134" s="4">
         <v>101.8</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>103.2</v>
       </c>
-      <c r="E134" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="F134" s="4">
-        <v>103.2</v>
+      <c r="F134" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H134" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B135" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C135" s="4">
         <v>2.54</v>
       </c>
-      <c r="C135" s="4">
-        <v>2.5299999999999998</v>
-      </c>
       <c r="D135" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E135" s="4">
         <v>2.54</v>
       </c>
-      <c r="E135" s="4">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2.54</v>
+      <c r="F135" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H135" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
         <v>304</v>
       </c>
@@ -6351,42 +5946,36 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F136" s="4">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G136" s="4">
         <v>0</v>
       </c>
-      <c r="H136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B137" s="4">
-        <v>60.3</v>
+        <v>60.35</v>
       </c>
       <c r="C137" s="4">
-        <v>60.35</v>
+        <v>60.4</v>
       </c>
       <c r="D137" s="4">
-        <v>60.4</v>
+        <v>60</v>
       </c>
       <c r="E137" s="4">
         <v>60</v>
       </c>
-      <c r="F137" s="4">
-        <v>60</v>
+      <c r="F137" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H137" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
         <v>308</v>
       </c>
@@ -6403,16 +5992,13 @@
         <v>0.23</v>
       </c>
       <c r="F138" s="4">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G138" s="4">
         <v>0</v>
       </c>
-      <c r="H138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
         <v>309</v>
       </c>
@@ -6420,25 +6006,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C139" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E139" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D139" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E139" s="4">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F139" s="4">
-        <v>1.1499999999999999</v>
+      <c r="F139" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H139" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
         <v>312</v>
       </c>
@@ -6455,16 +6038,13 @@
         <v>3</v>
       </c>
       <c r="F140" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G140" s="4">
         <v>0</v>
       </c>
-      <c r="H140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
         <v>313</v>
       </c>
@@ -6481,21 +6061,18 @@
         <v>5</v>
       </c>
       <c r="F141" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G141" s="4">
         <v>0</v>
       </c>
-      <c r="H141" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B142" s="4">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="C142" s="4">
         <v>0.187</v>
@@ -6506,17 +6083,14 @@
       <c r="E142" s="4">
         <v>0.187</v>
       </c>
-      <c r="F142" s="4">
-        <v>0.187</v>
+      <c r="F142" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H142" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:7">
       <c r="A143" s="3" t="s">
         <v>316</v>
       </c>
@@ -6533,16 +6107,13 @@
         <v>0.93</v>
       </c>
       <c r="F143" s="4">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G143" s="4">
         <v>0</v>
       </c>
-      <c r="H143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="3" t="s">
         <v>317</v>
       </c>
@@ -6550,25 +6121,22 @@
         <v>2220</v>
       </c>
       <c r="C144" s="5">
-        <v>2220</v>
+        <v>2250</v>
       </c>
       <c r="D144" s="5">
-        <v>2250</v>
+        <v>2202</v>
       </c>
       <c r="E144" s="5">
-        <v>2202</v>
-      </c>
-      <c r="F144" s="5">
         <v>2218</v>
       </c>
+      <c r="F144" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="G144" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H144" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
         <v>320</v>
       </c>
@@ -6585,16 +6153,13 @@
         <v>5</v>
       </c>
       <c r="F145" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G145" s="4">
         <v>0</v>
       </c>
-      <c r="H145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="3" t="s">
         <v>321</v>
       </c>
@@ -6611,16 +6176,13 @@
         <v>505.5</v>
       </c>
       <c r="F146" s="4">
-        <v>505.5</v>
+        <v>0</v>
       </c>
       <c r="G146" s="4">
         <v>0</v>
       </c>
-      <c r="H146" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="3" t="s">
         <v>322</v>
       </c>
@@ -6628,25 +6190,22 @@
         <v>11.22</v>
       </c>
       <c r="C147" s="4">
-        <v>11.22</v>
+        <v>11.28</v>
       </c>
       <c r="D147" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="E147" s="4">
         <v>11.28</v>
       </c>
-      <c r="E147" s="4">
-        <v>11.2</v>
-      </c>
-      <c r="F147" s="4">
-        <v>11.28</v>
+      <c r="F147" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H147" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:7">
       <c r="A148" s="3" t="s">
         <v>325</v>
       </c>
@@ -6657,22 +6216,19 @@
         <v>11.08</v>
       </c>
       <c r="D148" s="4">
-        <v>11.08</v>
+        <v>10.9</v>
       </c>
       <c r="E148" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="F148" s="4">
         <v>11</v>
       </c>
+      <c r="F148" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="G148" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H148" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:7">
       <c r="A149" s="3" t="s">
         <v>328</v>
       </c>
@@ -6689,16 +6245,13 @@
         <v>11.98</v>
       </c>
       <c r="F149" s="4">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
       </c>
-      <c r="H149" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
         <v>329</v>
       </c>
@@ -6706,25 +6259,22 @@
         <v>1.44</v>
       </c>
       <c r="C150" s="4">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="D150" s="4">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="E150" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="F150" s="4">
         <v>1.4</v>
       </c>
+      <c r="F150" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="G150" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H150" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:7">
       <c r="A151" s="3" t="s">
         <v>332</v>
       </c>
@@ -6732,25 +6282,22 @@
         <v>106.1</v>
       </c>
       <c r="C151" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="D151" s="4">
         <v>106.1</v>
       </c>
-      <c r="D151" s="4">
+      <c r="E151" s="4">
         <v>106.5</v>
       </c>
-      <c r="E151" s="4">
-        <v>106.1</v>
-      </c>
-      <c r="F151" s="4">
-        <v>106.5</v>
+      <c r="F151" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H151" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
         <v>335</v>
       </c>
@@ -6758,25 +6305,22 @@
         <v>438.8</v>
       </c>
       <c r="C152" s="4">
-        <v>438.8</v>
+        <v>443.4</v>
       </c>
       <c r="D152" s="4">
-        <v>443.4</v>
+        <v>436.8</v>
       </c>
       <c r="E152" s="4">
-        <v>436.8</v>
-      </c>
-      <c r="F152" s="4">
         <v>443</v>
       </c>
+      <c r="F152" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="G152" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="H152" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:7">
       <c r="A153" s="3" t="s">
         <v>338</v>
       </c>
@@ -6793,16 +6337,13 @@
         <v>950</v>
       </c>
       <c r="F153" s="4">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
       </c>
-      <c r="H153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
         <v>339</v>
       </c>
@@ -6819,21 +6360,18 @@
         <v>984.5</v>
       </c>
       <c r="F154" s="4">
-        <v>984.5</v>
+        <v>0</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
       </c>
-      <c r="H154" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B155" s="4">
-        <v>3.58</v>
+        <v>3.68</v>
       </c>
       <c r="C155" s="4">
         <v>3.68</v>
@@ -6844,74 +6382,65 @@
       <c r="E155" s="4">
         <v>3.68</v>
       </c>
-      <c r="F155" s="4">
-        <v>3.68</v>
+      <c r="F155" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H155" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B156" s="4">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="C156" s="4">
-        <v>3.86</v>
+        <v>4.2</v>
       </c>
       <c r="D156" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="E156" s="4">
         <v>4.2</v>
       </c>
-      <c r="E156" s="4">
-        <v>3.85</v>
-      </c>
-      <c r="F156" s="4">
-        <v>4.2</v>
+      <c r="F156" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H156" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B157" s="4">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C157" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="D157" s="4">
         <v>1.65</v>
       </c>
-      <c r="D157" s="4">
+      <c r="E157" s="4">
         <v>1.96</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="F157" s="4">
-        <v>1.96</v>
+      <c r="F157" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H157" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B158" s="4">
-        <v>9.7799999999999994</v>
+        <v>9.5</v>
       </c>
       <c r="C158" s="4">
         <v>9.5</v>
@@ -6922,95 +6451,83 @@
       <c r="E158" s="4">
         <v>9.5</v>
       </c>
-      <c r="F158" s="4">
-        <v>9.5</v>
+      <c r="F158" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H158" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B159" s="4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C159" s="4">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D159" s="4">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="E159" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F159" s="4">
         <v>0.96</v>
       </c>
+      <c r="F159" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="G159" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H159" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
         <v>355</v>
       </c>
       <c r="B160" s="4">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C160" s="4">
+        <v>670</v>
+      </c>
+      <c r="D160" s="4">
         <v>635</v>
       </c>
-      <c r="D160" s="4">
+      <c r="E160" s="4">
         <v>670</v>
       </c>
-      <c r="E160" s="4">
-        <v>635</v>
-      </c>
-      <c r="F160" s="4">
-        <v>670</v>
+      <c r="F160" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H160" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B161" s="4">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="C161" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D161" s="4">
         <v>0.8</v>
       </c>
-      <c r="D161" s="4">
+      <c r="E161" s="4">
         <v>0.88</v>
       </c>
-      <c r="E161" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F161" s="4">
-        <v>0.88</v>
+      <c r="F161" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="H161" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
         <v>361</v>
       </c>
@@ -7018,25 +6535,22 @@
         <v>198</v>
       </c>
       <c r="C162" s="4">
-        <v>198</v>
+        <v>201.8</v>
       </c>
       <c r="D162" s="4">
-        <v>201.8</v>
+        <v>197.5</v>
       </c>
       <c r="E162" s="4">
         <v>197.5</v>
       </c>
-      <c r="F162" s="4">
-        <v>197.5</v>
+      <c r="F162" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H162" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
         <v>364</v>
       </c>
@@ -7044,51 +6558,45 @@
         <v>0.82</v>
       </c>
       <c r="C163" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E163" s="4">
         <v>0.82</v>
       </c>
-      <c r="D163" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="E163" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F163" s="4">
-        <v>0.82</v>
+      <c r="F163" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H163" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B164" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="C164" s="4">
         <v>4.8</v>
       </c>
-      <c r="C164" s="4">
-        <v>4.79</v>
-      </c>
       <c r="D164" s="4">
-        <v>4.8</v>
+        <v>4.72</v>
       </c>
       <c r="E164" s="4">
         <v>4.72</v>
       </c>
-      <c r="F164" s="4">
-        <v>4.72</v>
+      <c r="F164" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="H164" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" s="3" t="s">
         <v>370</v>
       </c>
@@ -7105,42 +6613,36 @@
         <v>1.07</v>
       </c>
       <c r="F165" s="4">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="G165" s="4">
         <v>0</v>
       </c>
-      <c r="H165" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B166" s="4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="C166" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D166" s="4">
         <v>0.86</v>
       </c>
-      <c r="D166" s="4">
+      <c r="E166" s="4">
         <v>0.88</v>
       </c>
-      <c r="E166" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F166" s="4">
-        <v>0.88</v>
+      <c r="F166" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H166" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
         <v>374</v>
       </c>
@@ -7148,30 +6650,27 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C167" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D167" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D167" s="4">
+      <c r="E167" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E167" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F167" s="4">
-        <v>0.57999999999999996</v>
+      <c r="F167" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H167" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B168" s="4">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="C168" s="4">
         <v>6.6</v>
@@ -7182,17 +6681,14 @@
       <c r="E168" s="4">
         <v>6.6</v>
       </c>
-      <c r="F168" s="4">
-        <v>6.6</v>
+      <c r="F168" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H168" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:7">
       <c r="A169" s="3" t="s">
         <v>380</v>
       </c>
@@ -7208,17 +6704,14 @@
       <c r="E169" s="4">
         <v>6.84</v>
       </c>
-      <c r="F169" s="4">
-        <v>6.84</v>
+      <c r="F169" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H169" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
         <v>382</v>
       </c>
@@ -7235,16 +6728,13 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="F170" s="4">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G170" s="4">
         <v>0</v>
       </c>
-      <c r="H170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="3" t="s">
         <v>383</v>
       </c>
@@ -7261,42 +6751,36 @@
         <v>1.66</v>
       </c>
       <c r="F171" s="4">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="G171" s="4">
         <v>0</v>
       </c>
-      <c r="H171" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B172" s="4">
-        <v>236</v>
+        <v>237.2</v>
       </c>
       <c r="C172" s="4">
+        <v>244</v>
+      </c>
+      <c r="D172" s="4">
         <v>237.2</v>
       </c>
-      <c r="D172" s="4">
-        <v>244</v>
-      </c>
       <c r="E172" s="4">
-        <v>237.2</v>
-      </c>
-      <c r="F172" s="4">
         <v>242.8</v>
       </c>
+      <c r="F172" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="G172" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H172" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:7">
       <c r="A173" s="3" t="s">
         <v>387</v>
       </c>
@@ -7313,16 +6797,13 @@
         <v>925</v>
       </c>
       <c r="F173" s="4">
-        <v>925</v>
+        <v>0</v>
       </c>
       <c r="G173" s="4">
         <v>0</v>
       </c>
-      <c r="H173" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="3" t="s">
         <v>388</v>
       </c>
@@ -7339,16 +6820,13 @@
         <v>914</v>
       </c>
       <c r="F174" s="4">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="G174" s="4">
         <v>0</v>
       </c>
-      <c r="H174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="3" t="s">
         <v>389</v>
       </c>
@@ -7356,25 +6834,22 @@
         <v>52</v>
       </c>
       <c r="C175" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D175" s="4">
-        <v>54</v>
+        <v>51.3</v>
       </c>
       <c r="E175" s="4">
-        <v>51.3</v>
-      </c>
-      <c r="F175" s="4">
         <v>52.2</v>
       </c>
+      <c r="F175" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="G175" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H175" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
         <v>392</v>
       </c>
@@ -7391,16 +6866,13 @@
         <v>6.11</v>
       </c>
       <c r="F176" s="4">
-        <v>6.11</v>
+        <v>0</v>
       </c>
       <c r="G176" s="4">
         <v>0</v>
       </c>
-      <c r="H176" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="3" t="s">
         <v>393</v>
       </c>
@@ -7408,25 +6880,22 @@
         <v>1.28</v>
       </c>
       <c r="C177" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D177" s="4">
         <v>1.28</v>
       </c>
-      <c r="D177" s="4">
+      <c r="E177" s="4">
         <v>1.3</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="F177" s="4">
-        <v>1.3</v>
+      <c r="F177" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H177" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:7">
       <c r="A178" s="3" t="s">
         <v>396</v>
       </c>
@@ -7443,16 +6912,13 @@
         <v>3.97</v>
       </c>
       <c r="F178" s="4">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="G178" s="4">
         <v>0</v>
       </c>
-      <c r="H178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="3" t="s">
         <v>397</v>
       </c>
@@ -7469,16 +6935,13 @@
         <v>6.6</v>
       </c>
       <c r="F179" s="4">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="G179" s="4">
         <v>0</v>
       </c>
-      <c r="H179" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
         <v>398</v>
       </c>
@@ -7495,21 +6958,18 @@
         <v>6.16</v>
       </c>
       <c r="F180" s="4">
-        <v>6.16</v>
+        <v>0</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="H180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B181" s="4">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="C181" s="4">
         <v>1.7</v>
@@ -7520,17 +6980,14 @@
       <c r="E181" s="4">
         <v>1.7</v>
       </c>
-      <c r="F181" s="4">
-        <v>1.7</v>
+      <c r="F181" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H181" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
         <v>401</v>
       </c>
@@ -7538,25 +6995,22 @@
         <v>0.82</v>
       </c>
       <c r="C182" s="4">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="D182" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E182" s="4">
         <v>0.85</v>
       </c>
-      <c r="E182" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="F182" s="4">
-        <v>0.85</v>
+      <c r="F182" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="H182" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:7">
       <c r="A183" s="3" t="s">
         <v>404</v>
       </c>
@@ -7573,42 +7027,36 @@
         <v>18.899999999999999</v>
       </c>
       <c r="F183" s="4">
-        <v>18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G183" s="4">
         <v>0</v>
       </c>
-      <c r="H183" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B184" s="4">
+        <v>0.111</v>
+      </c>
+      <c r="C184" s="4">
         <v>0.115</v>
       </c>
-      <c r="C184" s="4">
+      <c r="D184" s="4">
         <v>0.111</v>
       </c>
-      <c r="D184" s="4">
+      <c r="E184" s="4">
         <v>0.115</v>
       </c>
-      <c r="E184" s="4">
-        <v>0.111</v>
-      </c>
-      <c r="F184" s="4">
-        <v>0.115</v>
+      <c r="F184" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="H184" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:7">
       <c r="A185" s="3" t="s">
         <v>408</v>
       </c>
@@ -7625,16 +7073,13 @@
         <v>0.107</v>
       </c>
       <c r="F185" s="4">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G185" s="4">
         <v>0</v>
       </c>
-      <c r="H185" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="3" t="s">
         <v>409</v>
       </c>
@@ -7651,16 +7096,13 @@
         <v>19.48</v>
       </c>
       <c r="F186" s="4">
-        <v>19.48</v>
+        <v>0</v>
       </c>
       <c r="G186" s="4">
         <v>0</v>
       </c>
-      <c r="H186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="3" t="s">
         <v>410</v>
       </c>
@@ -7677,42 +7119,36 @@
         <v>3.48</v>
       </c>
       <c r="F187" s="4">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="G187" s="4">
         <v>0</v>
       </c>
-      <c r="H187" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B188" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C188" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C188" s="4">
+      <c r="D188" s="4">
         <v>0.5</v>
       </c>
-      <c r="D188" s="4">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="E188" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F188" s="4">
         <v>0.54</v>
       </c>
+      <c r="F188" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="G188" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H188" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:7">
       <c r="A189" s="3" t="s">
         <v>414</v>
       </c>
@@ -7729,47 +7165,41 @@
         <v>1.65</v>
       </c>
       <c r="F189" s="4">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="G189" s="4">
         <v>0</v>
       </c>
-      <c r="H189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="3" t="s">
         <v>415</v>
       </c>
       <c r="B190" s="4">
-        <v>0.13500000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C190" s="4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D190" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="E190" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D190" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E190" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F190" s="4">
-        <v>0.13100000000000001</v>
+      <c r="F190" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H190" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:7">
       <c r="A191" s="3" t="s">
         <v>418</v>
       </c>
       <c r="B191" s="4">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="C191" s="4">
         <v>2.95</v>
@@ -7780,17 +7210,14 @@
       <c r="E191" s="4">
         <v>2.95</v>
       </c>
-      <c r="F191" s="4">
-        <v>2.95</v>
+      <c r="F191" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H191" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:7">
       <c r="A192" s="3" t="s">
         <v>421</v>
       </c>
@@ -7798,25 +7225,22 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C192" s="4">
-        <v>2.4500000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="D192" s="4">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="E192" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="F192" s="4">
         <v>2.41</v>
       </c>
+      <c r="F192" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="G192" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H192" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:7">
       <c r="A193" s="3" t="s">
         <v>424</v>
       </c>
@@ -7833,68 +7257,59 @@
         <v>1</v>
       </c>
       <c r="F193" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" s="4">
         <v>0</v>
       </c>
-      <c r="H193" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B194" s="4">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="C194" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D194" s="4">
         <v>0.59</v>
       </c>
-      <c r="D194" s="4">
+      <c r="E194" s="4">
         <v>0.6</v>
       </c>
-      <c r="E194" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="F194" s="4">
-        <v>0.6</v>
+      <c r="F194" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H194" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:7">
       <c r="A195" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B195" s="4">
-        <v>9.2899999999999991</v>
+        <v>9.32</v>
       </c>
       <c r="C195" s="4">
+        <v>9.58</v>
+      </c>
+      <c r="D195" s="4">
         <v>9.32</v>
       </c>
-      <c r="D195" s="4">
-        <v>9.58</v>
-      </c>
       <c r="E195" s="4">
-        <v>9.32</v>
-      </c>
-      <c r="F195" s="4">
         <v>9.5399999999999991</v>
       </c>
+      <c r="F195" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="G195" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H195" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:7">
       <c r="A196" s="3" t="s">
         <v>431</v>
       </c>
@@ -7911,68 +7326,59 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="F196" s="4">
-        <v>9.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="G196" s="4">
         <v>0</v>
       </c>
-      <c r="H196" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B197" s="4">
-        <v>9.9000000000000008E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C197" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D197" s="4">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="D197" s="4">
+      <c r="E197" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="E197" s="4">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F197" s="4">
-        <v>9.7999999999999997E-3</v>
+      <c r="F197" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H197" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:7">
       <c r="A198" s="3" t="s">
         <v>435</v>
       </c>
       <c r="B198" s="4">
-        <v>4.96</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="C198" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="D198" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="D198" s="4">
-        <v>5.14</v>
-      </c>
       <c r="E198" s="4">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="F198" s="4">
         <v>5.12</v>
       </c>
+      <c r="F198" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="G198" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H198" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:7">
       <c r="A199" s="3" t="s">
         <v>438</v>
       </c>
@@ -7989,42 +7395,36 @@
         <v>6.7</v>
       </c>
       <c r="F199" s="4">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="G199" s="4">
         <v>0</v>
       </c>
-      <c r="H199" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B200" s="4">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="C200" s="4">
         <v>0.71</v>
       </c>
       <c r="D200" s="4">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="E200" s="4">
         <v>0.69</v>
       </c>
-      <c r="F200" s="4">
-        <v>0.69</v>
+      <c r="F200" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H200" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:7">
       <c r="A201" s="3" t="s">
         <v>441</v>
       </c>
@@ -8041,16 +7441,13 @@
         <v>0.7</v>
       </c>
       <c r="F201" s="4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G201" s="4">
         <v>0</v>
       </c>
-      <c r="H201" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="3" t="s">
         <v>442</v>
       </c>
@@ -8058,51 +7455,45 @@
         <v>1.25</v>
       </c>
       <c r="C202" s="4">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="D202" s="4">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="E202" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="F202" s="4">
         <v>1.24</v>
       </c>
+      <c r="F202" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="G202" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H202" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:7">
       <c r="A203" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B203" s="4">
-        <v>4.9800000000000004</v>
+        <v>4.97</v>
       </c>
       <c r="C203" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D203" s="4">
         <v>4.97</v>
       </c>
-      <c r="D203" s="4">
+      <c r="E203" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E203" s="4">
-        <v>4.97</v>
-      </c>
-      <c r="F203" s="4">
-        <v>5.0999999999999996</v>
+      <c r="F203" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H203" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:7">
       <c r="A204" s="3" t="s">
         <v>448</v>
       </c>
@@ -8119,16 +7510,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F204" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="G204" s="4">
         <v>0</v>
       </c>
-      <c r="H204" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="3" t="s">
         <v>449</v>
       </c>
@@ -8136,56 +7524,50 @@
         <v>6.98</v>
       </c>
       <c r="C205" s="4">
+        <v>7</v>
+      </c>
+      <c r="D205" s="4">
         <v>6.98</v>
       </c>
-      <c r="D205" s="4">
+      <c r="E205" s="4">
         <v>7</v>
       </c>
-      <c r="E205" s="4">
-        <v>6.98</v>
-      </c>
-      <c r="F205" s="4">
-        <v>7</v>
+      <c r="F205" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H205" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:7">
       <c r="A206" s="3" t="s">
         <v>452</v>
       </c>
       <c r="B206" s="4">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C206" s="4">
-        <v>55.6</v>
+        <v>56.95</v>
       </c>
       <c r="D206" s="4">
-        <v>56.95</v>
+        <v>54.7</v>
       </c>
       <c r="E206" s="4">
         <v>54.7</v>
       </c>
-      <c r="F206" s="4">
-        <v>54.7</v>
+      <c r="F206" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="H206" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:7">
       <c r="A207" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B207" s="4">
-        <v>0.16300000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C207" s="4">
         <v>0.16400000000000001</v>
@@ -8196,43 +7578,37 @@
       <c r="E207" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="F207" s="4">
-        <v>0.16400000000000001</v>
+      <c r="F207" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H207" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B208" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D208" s="4">
         <v>0.68</v>
       </c>
-      <c r="C208" s="4">
+      <c r="E208" s="4">
         <v>0.7</v>
       </c>
-      <c r="D208" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="E208" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F208" s="4">
-        <v>0.7</v>
+      <c r="F208" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H208" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
         <v>461</v>
       </c>
@@ -8240,51 +7616,45 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="C209" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D209" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D209" s="4">
-        <v>2.1</v>
-      </c>
       <c r="E209" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F209" s="4">
         <v>2.0699999999999998</v>
       </c>
+      <c r="F209" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="G209" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="H209" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B210" s="4">
-        <v>301.8</v>
+        <v>302</v>
       </c>
       <c r="C210" s="4">
+        <v>305</v>
+      </c>
+      <c r="D210" s="4">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="E210" s="4">
         <v>302</v>
       </c>
-      <c r="D210" s="4">
-        <v>305</v>
-      </c>
-      <c r="E210" s="4">
-        <v>301.39999999999998</v>
-      </c>
-      <c r="F210" s="4">
-        <v>302</v>
+      <c r="F210" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H210" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:7">
       <c r="A211" s="3" t="s">
         <v>467</v>
       </c>
@@ -8301,16 +7671,13 @@
         <v>920</v>
       </c>
       <c r="F211" s="4">
-        <v>920</v>
+        <v>0</v>
       </c>
       <c r="G211" s="4">
         <v>0</v>
       </c>
-      <c r="H211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
         <v>468</v>
       </c>
@@ -8327,16 +7694,13 @@
         <v>2.35</v>
       </c>
       <c r="F212" s="4">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="G212" s="4">
         <v>0</v>
       </c>
-      <c r="H212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
         <v>469</v>
       </c>
@@ -8352,17 +7716,14 @@
       <c r="E213" s="4">
         <v>0.114</v>
       </c>
-      <c r="F213" s="4">
-        <v>0.114</v>
+      <c r="F213" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="H213" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:7">
       <c r="A214" s="3" t="s">
         <v>472</v>
       </c>
@@ -8379,16 +7740,13 @@
         <v>1</v>
       </c>
       <c r="F214" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214" s="4">
         <v>0</v>
       </c>
-      <c r="H214" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
         <v>473</v>
       </c>
@@ -8405,21 +7763,18 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="F215" s="4">
-        <v>0.22600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G215" s="4">
         <v>0</v>
       </c>
-      <c r="H215" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B216" s="4">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="C216" s="4">
         <v>1.23</v>
@@ -8430,17 +7785,14 @@
       <c r="E216" s="4">
         <v>1.23</v>
       </c>
-      <c r="F216" s="4">
-        <v>1.23</v>
+      <c r="F216" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H216" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
         <v>476</v>
       </c>
@@ -8457,16 +7809,13 @@
         <v>1.3</v>
       </c>
       <c r="F217" s="4">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G217" s="4">
         <v>0</v>
       </c>
-      <c r="H217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
         <v>477</v>
       </c>
@@ -8474,51 +7823,45 @@
         <v>1.2</v>
       </c>
       <c r="C218" s="4">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D218" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="E218" s="4">
         <v>1.25</v>
       </c>
-      <c r="E218" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="F218" s="4">
-        <v>1.25</v>
+      <c r="F218" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="H218" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B219" s="4">
-        <v>11.92</v>
+        <v>11.9</v>
       </c>
       <c r="C219" s="4">
-        <v>11.9</v>
+        <v>12.46</v>
       </c>
       <c r="D219" s="4">
-        <v>12.46</v>
+        <v>11.72</v>
       </c>
       <c r="E219" s="4">
-        <v>11.72</v>
-      </c>
-      <c r="F219" s="4">
         <v>12.42</v>
       </c>
+      <c r="F219" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="G219" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="H219" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
         <v>483</v>
       </c>
@@ -8526,77 +7869,68 @@
         <v>3.48</v>
       </c>
       <c r="C220" s="4">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="D220" s="4">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="E220" s="4">
-        <v>3.44</v>
-      </c>
-      <c r="F220" s="4">
         <v>3.53</v>
       </c>
+      <c r="F220" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="G220" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="H220" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
         <v>486</v>
       </c>
       <c r="B221" s="4">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="C221" s="4">
-        <v>0.19600000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D221" s="4">
-        <v>0.20300000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E221" s="4">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F221" s="4">
         <v>0.19500000000000001</v>
       </c>
+      <c r="F221" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="G221" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="H221" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:7">
       <c r="A222" s="3" t="s">
         <v>489</v>
       </c>
       <c r="B222" s="4">
-        <v>14.24</v>
+        <v>14.2</v>
       </c>
       <c r="C222" s="4">
         <v>14.2</v>
       </c>
       <c r="D222" s="4">
-        <v>14.2</v>
+        <v>13.58</v>
       </c>
       <c r="E222" s="4">
-        <v>13.58</v>
-      </c>
-      <c r="F222" s="4">
         <v>13.98</v>
       </c>
+      <c r="F222" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="G222" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="H222" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
         <v>492</v>
       </c>
@@ -8612,17 +7946,14 @@
       <c r="E223" s="4">
         <v>1.4</v>
       </c>
-      <c r="F223" s="4">
-        <v>1.4</v>
+      <c r="F223" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H223" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
         <v>495</v>
       </c>
@@ -8639,42 +7970,36 @@
         <v>5.48</v>
       </c>
       <c r="F224" s="4">
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="G224" s="4">
         <v>0</v>
       </c>
-      <c r="H224" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B225" s="4">
-        <v>19.899999999999999</v>
+        <v>20</v>
       </c>
       <c r="C225" s="4">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D225" s="4">
-        <v>20.3</v>
+        <v>19.68</v>
       </c>
       <c r="E225" s="4">
-        <v>19.68</v>
-      </c>
-      <c r="F225" s="4">
         <v>20.100000000000001</v>
       </c>
+      <c r="F225" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="G225" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="H225" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
         <v>499</v>
       </c>
@@ -8682,25 +8007,22 @@
         <v>3.11</v>
       </c>
       <c r="C226" s="4">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="D226" s="4">
-        <v>3.28</v>
+        <v>3.06</v>
       </c>
       <c r="E226" s="4">
         <v>3.06</v>
       </c>
-      <c r="F226" s="4">
-        <v>3.06</v>
+      <c r="F226" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H226" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
         <v>502</v>
       </c>
@@ -8717,16 +8039,13 @@
         <v>100.7</v>
       </c>
       <c r="F227" s="4">
-        <v>100.7</v>
+        <v>0</v>
       </c>
       <c r="G227" s="4">
         <v>0</v>
       </c>
-      <c r="H227" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
         <v>503</v>
       </c>
@@ -8743,16 +8062,13 @@
         <v>97</v>
       </c>
       <c r="F228" s="4">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G228" s="4">
         <v>0</v>
       </c>
-      <c r="H228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="3" t="s">
         <v>504</v>
       </c>
@@ -8769,16 +8085,13 @@
         <v>99.6</v>
       </c>
       <c r="F229" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="G229" s="4">
         <v>130</v>
       </c>
-      <c r="H229" s="4" t="s">
+      <c r="G229" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
         <v>506</v>
       </c>
@@ -8789,22 +8102,19 @@
         <v>97.85</v>
       </c>
       <c r="D230" s="4">
-        <v>97.85</v>
+        <v>96</v>
       </c>
       <c r="E230" s="4">
         <v>96</v>
       </c>
       <c r="F230" s="4">
-        <v>96</v>
-      </c>
-      <c r="G230" s="4">
         <v>610</v>
       </c>
-      <c r="H230" s="4" t="s">
+      <c r="G230" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:7">
       <c r="A231" s="3" t="s">
         <v>508</v>
       </c>
@@ -8821,16 +8131,13 @@
         <v>0.82</v>
       </c>
       <c r="F231" s="4">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="G231" s="4">
         <v>0</v>
       </c>
-      <c r="H231" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="3" t="s">
         <v>509</v>
       </c>
@@ -8838,51 +8145,45 @@
         <v>6.19</v>
       </c>
       <c r="C232" s="4">
-        <v>6.19</v>
+        <v>6.55</v>
       </c>
       <c r="D232" s="4">
-        <v>6.55</v>
+        <v>6.12</v>
       </c>
       <c r="E232" s="4">
-        <v>6.12</v>
-      </c>
-      <c r="F232" s="4">
         <v>6.49</v>
       </c>
+      <c r="F232" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="G232" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H232" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:7">
       <c r="A233" s="3" t="s">
         <v>512</v>
       </c>
       <c r="B233" s="4">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="C233" s="4">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="D233" s="4">
-        <v>2.44</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E233" s="4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="F233" s="4">
         <v>2.4</v>
       </c>
+      <c r="F233" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="G233" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="H233" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:7">
       <c r="A234" s="3" t="s">
         <v>515</v>
       </c>
@@ -8899,16 +8200,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F234" s="4">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G234" s="4">
         <v>0</v>
       </c>
-      <c r="H234" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="3" t="s">
         <v>516</v>
       </c>
@@ -8925,21 +8223,18 @@
         <v>7</v>
       </c>
       <c r="F235" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G235" s="4">
         <v>0</v>
       </c>
-      <c r="H235" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
         <v>517</v>
       </c>
       <c r="B236" s="4">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C236" s="4">
         <v>0.32</v>
@@ -8950,17 +8245,14 @@
       <c r="E236" s="4">
         <v>0.32</v>
       </c>
-      <c r="F236" s="4">
-        <v>0.32</v>
+      <c r="F236" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H236" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:7">
       <c r="A237" s="3" t="s">
         <v>520</v>
       </c>
@@ -8971,22 +8263,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D237" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E237" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E237" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F237" s="4">
-        <v>1.0999999999999999E-2</v>
+      <c r="F237" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="H237" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:7">
       <c r="A238" s="3" t="s">
         <v>523</v>
       </c>
@@ -9002,69 +8291,60 @@
       <c r="E238" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F238" s="4">
-        <v>1.0999999999999999E-2</v>
+      <c r="F238" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H238" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:7">
       <c r="A239" s="3" t="s">
         <v>525</v>
       </c>
       <c r="B239" s="4">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C239" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D239" s="4">
         <v>0.7</v>
       </c>
-      <c r="D239" s="4">
-        <v>0.74</v>
-      </c>
       <c r="E239" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F239" s="4">
         <v>0.72</v>
       </c>
+      <c r="F239" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="G239" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="H239" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:7">
       <c r="A240" s="3" t="s">
         <v>528</v>
       </c>
       <c r="B240" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C240" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D240" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E240" s="4">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="C240" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="D240" s="4">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="E240" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="F240" s="4">
-        <v>9.7000000000000003E-3</v>
+      <c r="F240" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H240" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:7">
       <c r="A241" s="3" t="s">
         <v>531</v>
       </c>
@@ -9080,43 +8360,37 @@
       <c r="E241" s="4">
         <v>1.9</v>
       </c>
-      <c r="F241" s="4">
-        <v>1.9</v>
+      <c r="F241" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H241" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:7">
       <c r="A242" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B242" s="4">
-        <v>5.9</v>
+        <v>5.72</v>
       </c>
       <c r="C242" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="D242" s="4">
         <v>5.72</v>
       </c>
-      <c r="D242" s="4">
+      <c r="E242" s="4">
         <v>5.75</v>
       </c>
-      <c r="E242" s="4">
-        <v>5.72</v>
-      </c>
       <c r="F242" s="4">
-        <v>5.75</v>
-      </c>
-      <c r="G242" s="4">
         <v>700</v>
       </c>
-      <c r="H242" s="4" t="s">
+      <c r="G242" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:7">
       <c r="A243" s="3" t="s">
         <v>536</v>
       </c>
@@ -9133,42 +8407,36 @@
         <v>1.83</v>
       </c>
       <c r="F243" s="4">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="G243" s="4">
         <v>0</v>
       </c>
-      <c r="H243" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B244" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="C244" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D244" s="4">
         <v>10</v>
       </c>
-      <c r="C244" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="D244" s="4">
+      <c r="E244" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E244" s="4">
-        <v>10</v>
-      </c>
-      <c r="F244" s="4">
-        <v>10.199999999999999</v>
+      <c r="F244" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="H244" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
         <v>540</v>
       </c>
@@ -9185,42 +8453,36 @@
         <v>12.92</v>
       </c>
       <c r="F245" s="4">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="G245" s="4">
         <v>0</v>
       </c>
-      <c r="H245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
         <v>541</v>
       </c>
       <c r="B246" s="4">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="C246" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="D246" s="4">
         <v>2.36</v>
       </c>
-      <c r="D246" s="4">
+      <c r="E246" s="4">
         <v>2.4</v>
       </c>
-      <c r="E246" s="4">
-        <v>2.36</v>
-      </c>
-      <c r="F246" s="4">
-        <v>2.4</v>
+      <c r="F246" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="H246" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
         <v>544</v>
       </c>
@@ -9237,42 +8499,36 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="F247" s="4">
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G247" s="4">
         <v>0</v>
       </c>
-      <c r="H247" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="3" t="s">
         <v>545</v>
       </c>
       <c r="B248" s="4">
-        <v>4.6399999999999997</v>
+        <v>4.68</v>
       </c>
       <c r="C248" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="D248" s="4">
         <v>4.68</v>
       </c>
-      <c r="D248" s="4">
+      <c r="E248" s="4">
         <v>4.75</v>
       </c>
-      <c r="E248" s="4">
-        <v>4.68</v>
-      </c>
-      <c r="F248" s="4">
-        <v>4.75</v>
+      <c r="F248" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="H248" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:7">
       <c r="A249" s="3" t="s">
         <v>548</v>
       </c>
@@ -9280,25 +8536,22 @@
         <v>34.799999999999997</v>
       </c>
       <c r="C249" s="4">
-        <v>34.799999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D249" s="4">
-        <v>35.700000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="E249" s="4">
-        <v>34.6</v>
-      </c>
-      <c r="F249" s="4">
         <v>35.049999999999997</v>
       </c>
+      <c r="F249" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="G249" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="H249" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
         <v>551</v>
       </c>
@@ -9306,25 +8559,22 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="C250" s="4">
-        <v>0.28499999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D250" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E250" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E250" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F250" s="4">
-        <v>0.28999999999999998</v>
+      <c r="F250" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="H250" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:7">
       <c r="A251" s="3" t="s">
         <v>553</v>
       </c>
@@ -9341,21 +8591,18 @@
         <v>1.4</v>
       </c>
       <c r="F251" s="4">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G251" s="4">
         <v>0</v>
       </c>
-      <c r="H251" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
         <v>554</v>
       </c>
       <c r="B252" s="4">
-        <v>0.38500000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="C252" s="4">
         <v>0.38</v>
@@ -9366,17 +8613,14 @@
       <c r="E252" s="4">
         <v>0.38</v>
       </c>
-      <c r="F252" s="4">
-        <v>0.38</v>
+      <c r="F252" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H252" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:7">
       <c r="A253" s="3" t="s">
         <v>556</v>
       </c>
@@ -9387,22 +8631,19 @@
         <v>19.059999999999999</v>
       </c>
       <c r="D253" s="4">
+        <v>19</v>
+      </c>
+      <c r="E253" s="4">
         <v>19.059999999999999</v>
       </c>
-      <c r="E253" s="4">
-        <v>19</v>
-      </c>
-      <c r="F253" s="4">
-        <v>19.059999999999999</v>
+      <c r="F253" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H253" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:7">
       <c r="A254" s="3" t="s">
         <v>558</v>
       </c>
@@ -9410,129 +8651,114 @@
         <v>0.84</v>
       </c>
       <c r="C254" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D254" s="4">
         <v>0.84</v>
       </c>
-      <c r="D254" s="4">
-        <v>0.91</v>
-      </c>
       <c r="E254" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="F254" s="4">
         <v>0.88</v>
       </c>
+      <c r="F254" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="G254" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="H254" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:7">
       <c r="A255" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B255" s="4">
-        <v>7.5</v>
+        <v>7.52</v>
       </c>
       <c r="C255" s="4">
+        <v>7.74</v>
+      </c>
+      <c r="D255" s="4">
         <v>7.52</v>
       </c>
-      <c r="D255" s="4">
-        <v>7.74</v>
-      </c>
       <c r="E255" s="4">
-        <v>7.52</v>
-      </c>
-      <c r="F255" s="4">
         <v>7.7</v>
       </c>
+      <c r="F255" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="G255" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H255" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:7">
       <c r="A256" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B256" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="C256" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D256" s="4">
         <v>0.49</v>
       </c>
-      <c r="C256" s="4">
+      <c r="E256" s="4">
         <v>0.495</v>
       </c>
-      <c r="D256" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E256" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="F256" s="4">
-        <v>0.495</v>
+      <c r="F256" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="H256" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:7">
       <c r="A257" s="3" t="s">
         <v>566</v>
       </c>
       <c r="B257" s="4">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="C257" s="4">
         <v>5.36</v>
       </c>
       <c r="D257" s="4">
-        <v>5.36</v>
+        <v>5.28</v>
       </c>
       <c r="E257" s="4">
         <v>5.28</v>
       </c>
-      <c r="F257" s="4">
-        <v>5.28</v>
+      <c r="F257" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="H257" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:7">
       <c r="A258" s="3" t="s">
         <v>569</v>
       </c>
       <c r="B258" s="4">
+        <v>19</v>
+      </c>
+      <c r="C258" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D258" s="4">
         <v>18.96</v>
       </c>
-      <c r="C258" s="4">
-        <v>19</v>
-      </c>
-      <c r="D258" s="4">
-        <v>19.100000000000001</v>
-      </c>
       <c r="E258" s="4">
-        <v>18.96</v>
-      </c>
-      <c r="F258" s="4">
         <v>18.98</v>
       </c>
+      <c r="F258" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="G258" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="H258" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:7">
       <c r="A259" s="3" t="s">
         <v>572</v>
       </c>
@@ -9549,42 +8775,36 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F259" s="4">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G259" s="4">
         <v>0</v>
       </c>
-      <c r="H259" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="3" t="s">
         <v>573</v>
       </c>
       <c r="B260" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C260" s="4">
         <v>8.57</v>
       </c>
-      <c r="C260" s="4">
+      <c r="D260" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D260" s="4">
+      <c r="E260" s="4">
         <v>8.57</v>
       </c>
-      <c r="E260" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F260" s="4">
-        <v>8.57</v>
+      <c r="F260" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="H260" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:7">
       <c r="A261" s="3" t="s">
         <v>576</v>
       </c>
@@ -9601,68 +8821,59 @@
         <v>100.4</v>
       </c>
       <c r="F261" s="4">
-        <v>100.4</v>
+        <v>0</v>
       </c>
       <c r="G261" s="4">
         <v>0</v>
       </c>
-      <c r="H261" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="3" t="s">
         <v>577</v>
       </c>
       <c r="B262" s="4">
-        <v>64.900000000000006</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="C262" s="4">
-        <v>68.150000000000006</v>
+        <v>68.2</v>
       </c>
       <c r="D262" s="4">
-        <v>68.2</v>
+        <v>65</v>
       </c>
       <c r="E262" s="4">
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="F262" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="G262" s="4">
         <v>590</v>
       </c>
-      <c r="H262" s="4" t="s">
+      <c r="G262" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:7">
       <c r="A263" s="3" t="s">
         <v>579</v>
       </c>
       <c r="B263" s="4">
-        <v>349.4</v>
+        <v>349</v>
       </c>
       <c r="C263" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D263" s="4">
-        <v>350</v>
+        <v>340.2</v>
       </c>
       <c r="E263" s="4">
-        <v>340.2</v>
+        <v>349.8</v>
       </c>
       <c r="F263" s="4">
-        <v>349.8</v>
-      </c>
-      <c r="G263" s="4">
         <v>890</v>
       </c>
-      <c r="H263" s="4" t="s">
+      <c r="G263" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:7">
       <c r="A264" s="3" t="s">
         <v>581</v>
       </c>
@@ -9679,16 +8890,13 @@
         <v>100</v>
       </c>
       <c r="F264" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G264" s="4">
         <v>0</v>
       </c>
-      <c r="H264" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
         <v>582</v>
       </c>
@@ -9705,16 +8913,13 @@
         <v>7.3</v>
       </c>
       <c r="F265" s="4">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="G265" s="4">
         <v>0</v>
       </c>
-      <c r="H265" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="3" t="s">
         <v>583</v>
       </c>
@@ -9731,21 +8936,18 @@
         <v>5.05</v>
       </c>
       <c r="F266" s="4">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="G266" s="4">
         <v>0</v>
       </c>
-      <c r="H266" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B267" s="4">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="C267" s="4">
         <v>7.87</v>
@@ -9756,17 +8958,14 @@
       <c r="E267" s="4">
         <v>7.87</v>
       </c>
-      <c r="F267" s="4">
-        <v>7.87</v>
+      <c r="F267" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H267" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
         <v>586</v>
       </c>
@@ -9774,25 +8973,22 @@
         <v>1.6</v>
       </c>
       <c r="C268" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="D268" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="E268" s="4">
         <v>1.6</v>
       </c>
-      <c r="D268" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="E268" s="4">
-        <v>1.57</v>
-      </c>
-      <c r="F268" s="4">
-        <v>1.6</v>
+      <c r="F268" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H268" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:7">
       <c r="A269" s="3" t="s">
         <v>589</v>
       </c>
@@ -9808,17 +9004,14 @@
       <c r="E269" s="5">
         <v>1000</v>
       </c>
-      <c r="F269" s="5">
-        <v>1000</v>
+      <c r="F269" s="4">
+        <v>0</v>
       </c>
       <c r="G269" s="4">
         <v>0</v>
       </c>
-      <c r="H269" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
         <v>590</v>
       </c>
@@ -9834,22 +9027,19 @@
       <c r="E270" s="5">
         <v>1027</v>
       </c>
-      <c r="F270" s="5">
-        <v>1027</v>
+      <c r="F270" s="4">
+        <v>0</v>
       </c>
       <c r="G270" s="4">
         <v>0</v>
       </c>
-      <c r="H270" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="3" t="s">
         <v>591</v>
       </c>
       <c r="B271" s="5">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C271" s="5">
         <v>1005</v>
@@ -9860,17 +9050,14 @@
       <c r="E271" s="5">
         <v>1005</v>
       </c>
-      <c r="F271" s="5">
-        <v>1005</v>
-      </c>
-      <c r="G271" s="4">
+      <c r="F271" s="4">
         <v>165</v>
       </c>
-      <c r="H271" s="4" t="s">
+      <c r="G271" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:7">
       <c r="A272" s="3" t="s">
         <v>593</v>
       </c>
@@ -9886,74 +9073,65 @@
       <c r="E272" s="5">
         <v>1030</v>
       </c>
-      <c r="F272" s="5">
-        <v>1030</v>
-      </c>
-      <c r="G272" s="4">
+      <c r="F272" s="4">
         <v>680</v>
       </c>
-      <c r="H272" s="4" t="s">
+      <c r="G272" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:7">
       <c r="A273" s="3" t="s">
         <v>595</v>
       </c>
       <c r="B273" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C273" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="D273" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E273" s="4">
         <v>2.1</v>
       </c>
-      <c r="C273" s="4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D273" s="4">
-        <v>2.11</v>
-      </c>
-      <c r="E273" s="4">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="F273" s="4">
-        <v>2.1</v>
+      <c r="F273" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H273" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:7">
       <c r="A274" s="3" t="s">
         <v>598</v>
       </c>
       <c r="B274" s="4">
-        <v>2.11</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C274" s="4">
         <v>2.2999999999999998</v>
       </c>
       <c r="D274" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E274" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="F274" s="4">
         <v>2.25</v>
       </c>
+      <c r="F274" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="G274" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="H274" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:7">
       <c r="A275" s="3" t="s">
         <v>601</v>
       </c>
       <c r="B275" s="4">
-        <v>56.5</v>
+        <v>57.2</v>
       </c>
       <c r="C275" s="4">
         <v>57.2</v>
@@ -9965,16 +9143,13 @@
         <v>57.2</v>
       </c>
       <c r="F275" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="G275" s="4">
         <v>20</v>
       </c>
-      <c r="H275" s="4" t="s">
+      <c r="G275" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:7">
       <c r="A276" s="3" t="s">
         <v>603</v>
       </c>
@@ -9982,25 +9157,22 @@
         <v>164</v>
       </c>
       <c r="C276" s="4">
+        <v>164.7</v>
+      </c>
+      <c r="D276" s="4">
+        <v>159.5</v>
+      </c>
+      <c r="E276" s="4">
         <v>164</v>
       </c>
-      <c r="D276" s="4">
-        <v>164.7</v>
-      </c>
-      <c r="E276" s="4">
-        <v>159.5</v>
-      </c>
       <c r="F276" s="4">
-        <v>164</v>
-      </c>
-      <c r="G276" s="4">
         <v>990</v>
       </c>
-      <c r="H276" s="4" t="s">
+      <c r="G276" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:7">
       <c r="A277" s="3" t="s">
         <v>605</v>
       </c>
@@ -10017,16 +9189,13 @@
         <v>119</v>
       </c>
       <c r="F277" s="4">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G277" s="4">
         <v>0</v>
       </c>
-      <c r="H277" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="3" t="s">
         <v>606</v>
       </c>
@@ -10043,16 +9212,13 @@
         <v>0.33</v>
       </c>
       <c r="F278" s="4">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G278" s="4">
         <v>0</v>
       </c>
-      <c r="H278" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="3" t="s">
         <v>607</v>
       </c>
@@ -10060,82 +9226,73 @@
         <v>3.12</v>
       </c>
       <c r="C279" s="4">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="D279" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="E279" s="4">
         <v>3.17</v>
       </c>
-      <c r="E279" s="4">
-        <v>3.09</v>
-      </c>
-      <c r="F279" s="4">
-        <v>3.17</v>
+      <c r="F279" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="H279" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
         <v>610</v>
       </c>
       <c r="B280" s="4">
-        <v>8.59</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="C280" s="4">
-        <v>8.5500000000000007</v>
+        <v>8.65</v>
       </c>
       <c r="D280" s="4">
-        <v>8.65</v>
+        <v>8</v>
       </c>
       <c r="E280" s="4">
-        <v>8</v>
-      </c>
-      <c r="F280" s="4">
         <v>8.35</v>
       </c>
+      <c r="F280" s="4" t="s">
+        <v>611</v>
+      </c>
       <c r="G280" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="H280" s="4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
         <v>613</v>
       </c>
       <c r="B281" s="4">
-        <v>23.15</v>
+        <v>23</v>
       </c>
       <c r="C281" s="4">
-        <v>23</v>
+        <v>23.25</v>
       </c>
       <c r="D281" s="4">
-        <v>23.25</v>
+        <v>22</v>
       </c>
       <c r="E281" s="4">
         <v>22</v>
       </c>
-      <c r="F281" s="4">
-        <v>22</v>
+      <c r="F281" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H281" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:7">
       <c r="A282" s="3" t="s">
         <v>616</v>
       </c>
       <c r="B282" s="4">
-        <v>0.46500000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="C282" s="4">
         <v>0.47</v>
@@ -10146,43 +9303,37 @@
       <c r="E282" s="4">
         <v>0.47</v>
       </c>
-      <c r="F282" s="4">
-        <v>0.47</v>
+      <c r="F282" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="H282" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
         <v>619</v>
       </c>
       <c r="B283" s="4">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="C283" s="4">
         <v>5.95</v>
       </c>
       <c r="D283" s="4">
-        <v>5.95</v>
+        <v>5.63</v>
       </c>
       <c r="E283" s="4">
-        <v>5.63</v>
-      </c>
-      <c r="F283" s="4">
         <v>5.81</v>
       </c>
+      <c r="F283" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="G283" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H283" s="4" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:7">
       <c r="A284" s="3" t="s">
         <v>622</v>
       </c>
@@ -10199,21 +9350,18 @@
         <v>3.1</v>
       </c>
       <c r="F284" s="4">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G284" s="4">
         <v>0</v>
       </c>
-      <c r="H284" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
         <v>623</v>
       </c>
       <c r="B285" s="4">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="C285" s="4">
         <v>3.6</v>
@@ -10224,48 +9372,42 @@
       <c r="E285" s="4">
         <v>3.6</v>
       </c>
-      <c r="F285" s="4">
-        <v>3.6</v>
+      <c r="F285" s="4" t="s">
+        <v>624</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="H285" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
         <v>626</v>
       </c>
       <c r="B286" s="4">
-        <v>14.86</v>
+        <v>14.9</v>
       </c>
       <c r="C286" s="4">
-        <v>14.9</v>
+        <v>15.16</v>
       </c>
       <c r="D286" s="4">
-        <v>15.16</v>
+        <v>14.84</v>
       </c>
       <c r="E286" s="4">
-        <v>14.84</v>
-      </c>
-      <c r="F286" s="4">
         <v>14.96</v>
       </c>
+      <c r="F286" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="G286" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="H286" s="4" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:7">
       <c r="A287" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B287" s="4">
-        <v>0.185</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C287" s="4">
         <v>0.19700000000000001</v>
@@ -10276,17 +9418,14 @@
       <c r="E287" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F287" s="4">
-        <v>0.19700000000000001</v>
+      <c r="F287" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H287" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:7">
       <c r="A288" s="3" t="s">
         <v>632</v>
       </c>
@@ -10297,27 +9436,24 @@
         <v>1.42</v>
       </c>
       <c r="D288" s="4">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="E288" s="4">
         <v>1.4</v>
       </c>
-      <c r="F288" s="4">
-        <v>1.4</v>
+      <c r="F288" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H288" s="4" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
         <v>634</v>
       </c>
       <c r="B289" s="4">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="C289" s="4">
         <v>0.71</v>
@@ -10328,95 +9464,83 @@
       <c r="E289" s="4">
         <v>0.71</v>
       </c>
-      <c r="F289" s="4">
-        <v>0.71</v>
+      <c r="F289" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H289" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:7">
       <c r="A290" s="3" t="s">
         <v>636</v>
       </c>
       <c r="B290" s="4">
-        <v>54.35</v>
+        <v>55</v>
       </c>
       <c r="C290" s="4">
+        <v>57.95</v>
+      </c>
+      <c r="D290" s="4">
         <v>55</v>
       </c>
-      <c r="D290" s="4">
-        <v>57.95</v>
-      </c>
       <c r="E290" s="4">
-        <v>55</v>
-      </c>
-      <c r="F290" s="4">
         <v>57.6</v>
       </c>
+      <c r="F290" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="G290" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="H290" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
         <v>639</v>
       </c>
       <c r="B291" s="4">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C291" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="D291" s="4">
         <v>3.8</v>
       </c>
-      <c r="D291" s="4">
+      <c r="E291" s="4">
         <v>4.18</v>
       </c>
-      <c r="E291" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="F291" s="4">
-        <v>4.18</v>
+      <c r="F291" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H291" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
         <v>640</v>
       </c>
       <c r="B292" s="4">
-        <v>34.85</v>
+        <v>35</v>
       </c>
       <c r="C292" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D292" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="E292" s="4">
         <v>36</v>
       </c>
-      <c r="E292" s="4">
-        <v>34.9</v>
-      </c>
-      <c r="F292" s="4">
-        <v>36</v>
+      <c r="F292" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H292" s="4" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:7">
       <c r="A293" s="3" t="s">
         <v>642</v>
       </c>
@@ -10424,25 +9548,22 @@
         <v>88.7</v>
       </c>
       <c r="C293" s="4">
-        <v>88.7</v>
+        <v>91</v>
       </c>
       <c r="D293" s="4">
-        <v>91</v>
+        <v>88.5</v>
       </c>
       <c r="E293" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="F293" s="4">
         <v>90</v>
       </c>
+      <c r="F293" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="G293" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="H293" s="4" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
         <v>645</v>
       </c>
@@ -10458,17 +9579,14 @@
       <c r="E294" s="4">
         <v>71</v>
       </c>
-      <c r="F294" s="4">
-        <v>71</v>
+      <c r="F294" s="4" t="s">
+        <v>646</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="H294" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:7">
       <c r="A295" s="3" t="s">
         <v>647</v>
       </c>
@@ -10484,17 +9602,14 @@
       <c r="E295" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F295" s="4">
-        <v>7.6999999999999999E-2</v>
+      <c r="F295" s="4" t="s">
+        <v>648</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H295" s="4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:7">
       <c r="A296" s="3" t="s">
         <v>650</v>
       </c>
@@ -10511,94 +9626,82 @@
         <v>1.95</v>
       </c>
       <c r="F296" s="4">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="G296" s="4">
         <v>0</v>
       </c>
-      <c r="H296" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="3" t="s">
         <v>651</v>
       </c>
       <c r="B297" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C297" s="4">
         <v>0.87</v>
       </c>
-      <c r="C297" s="4">
+      <c r="D297" s="4">
         <v>0.86</v>
       </c>
-      <c r="D297" s="4">
+      <c r="E297" s="4">
         <v>0.87</v>
       </c>
-      <c r="E297" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F297" s="4">
-        <v>0.87</v>
+      <c r="F297" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H297" s="4" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:7">
       <c r="A298" s="3" t="s">
         <v>654</v>
       </c>
       <c r="B298" s="4">
-        <v>11.24</v>
+        <v>11.32</v>
       </c>
       <c r="C298" s="4">
-        <v>11.32</v>
+        <v>11.46</v>
       </c>
       <c r="D298" s="4">
-        <v>11.46</v>
+        <v>11.18</v>
       </c>
       <c r="E298" s="4">
-        <v>11.18</v>
-      </c>
-      <c r="F298" s="4">
         <v>11.4</v>
       </c>
+      <c r="F298" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="G298" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H298" s="4" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
         <v>656</v>
       </c>
       <c r="B299" s="4">
-        <v>16.5</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="C299" s="4">
+        <v>17</v>
+      </c>
+      <c r="D299" s="4">
         <v>16.559999999999999</v>
       </c>
-      <c r="D299" s="4">
-        <v>17</v>
-      </c>
       <c r="E299" s="4">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="F299" s="4">
         <v>16.72</v>
       </c>
+      <c r="F299" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="G299" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="H299" s="4" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:7">
       <c r="A300" s="3" t="s">
         <v>659</v>
       </c>
@@ -10606,30 +9709,27 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C300" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="D300" s="4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D300" s="4">
+      <c r="E300" s="4">
         <v>2.57</v>
       </c>
-      <c r="E300" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F300" s="4">
-        <v>2.57</v>
+      <c r="F300" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="H300" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:7">
       <c r="A301" s="3" t="s">
         <v>662</v>
       </c>
       <c r="B301" s="5">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C301" s="5">
         <v>2500</v>
@@ -10640,17 +9740,14 @@
       <c r="E301" s="5">
         <v>2500</v>
       </c>
-      <c r="F301" s="5">
-        <v>2500</v>
-      </c>
-      <c r="G301" s="4">
+      <c r="F301" s="4">
         <v>135</v>
       </c>
-      <c r="H301" s="4" t="s">
+      <c r="G301" s="4" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:7">
       <c r="A302" s="3" t="s">
         <v>664</v>
       </c>
@@ -10666,17 +9763,14 @@
       <c r="E302" s="4">
         <v>3.25</v>
       </c>
-      <c r="F302" s="4">
-        <v>3.25</v>
+      <c r="F302" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H302" s="4" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:7">
       <c r="A303" s="3" t="s">
         <v>666</v>
       </c>
@@ -10684,25 +9778,22 @@
         <v>900</v>
       </c>
       <c r="C303" s="4">
+        <v>929.5</v>
+      </c>
+      <c r="D303" s="4">
         <v>900</v>
       </c>
-      <c r="D303" s="4">
-        <v>929.5</v>
-      </c>
       <c r="E303" s="4">
-        <v>900</v>
-      </c>
-      <c r="F303" s="4">
         <v>921</v>
       </c>
+      <c r="F303" s="4" t="s">
+        <v>667</v>
+      </c>
       <c r="G303" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="H303" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:7">
       <c r="A304" s="3" t="s">
         <v>669</v>
       </c>
@@ -10710,25 +9801,22 @@
         <v>93</v>
       </c>
       <c r="C304" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="D304" s="4">
         <v>93</v>
       </c>
-      <c r="D304" s="4">
-        <v>94.9</v>
-      </c>
       <c r="E304" s="4">
-        <v>93</v>
-      </c>
-      <c r="F304" s="4">
         <v>93.5</v>
       </c>
+      <c r="F304" s="4" t="s">
+        <v>670</v>
+      </c>
       <c r="G304" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="H304" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:7">
       <c r="A305" s="3" t="s">
         <v>672</v>
       </c>
@@ -10745,16 +9833,13 @@
         <v>74</v>
       </c>
       <c r="F305" s="4">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G305" s="4">
         <v>0</v>
       </c>
-      <c r="H305" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="3" t="s">
         <v>673</v>
       </c>
@@ -10771,16 +9856,13 @@
         <v>76.05</v>
       </c>
       <c r="F306" s="4">
-        <v>76.05</v>
+        <v>0</v>
       </c>
       <c r="G306" s="4">
         <v>0</v>
       </c>
-      <c r="H306" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="3" t="s">
         <v>674</v>
       </c>
@@ -10797,16 +9879,13 @@
         <v>76.349999999999994</v>
       </c>
       <c r="F307" s="4">
-        <v>76.349999999999994</v>
+        <v>0</v>
       </c>
       <c r="G307" s="4">
         <v>0</v>
       </c>
-      <c r="H307" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="3" t="s">
         <v>675</v>
       </c>
@@ -10823,16 +9902,13 @@
         <v>75.3</v>
       </c>
       <c r="F308" s="4">
-        <v>75.3</v>
+        <v>0</v>
       </c>
       <c r="G308" s="4">
         <v>0</v>
       </c>
-      <c r="H308" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
         <v>676</v>
       </c>
@@ -10849,42 +9925,36 @@
         <v>76.55</v>
       </c>
       <c r="F309" s="4">
-        <v>76.55</v>
+        <v>0</v>
       </c>
       <c r="G309" s="4">
         <v>0</v>
       </c>
-      <c r="H309" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B310" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C310" s="4">
+        <v>75.05</v>
+      </c>
+      <c r="D310" s="4">
+        <v>74.25</v>
+      </c>
+      <c r="E310" s="4">
         <v>75</v>
       </c>
-      <c r="D310" s="4">
-        <v>75.05</v>
-      </c>
-      <c r="E310" s="4">
-        <v>74.25</v>
-      </c>
-      <c r="F310" s="4">
-        <v>75</v>
+      <c r="F310" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="H310" s="4" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>680</v>
       </c>
@@ -10901,16 +9971,13 @@
         <v>76.7</v>
       </c>
       <c r="F311" s="4">
-        <v>76.7</v>
+        <v>0</v>
       </c>
       <c r="G311" s="4">
         <v>0</v>
       </c>
-      <c r="H311" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="3" t="s">
         <v>681</v>
       </c>
@@ -10927,68 +9994,59 @@
         <v>75</v>
       </c>
       <c r="F312" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G312" s="4">
         <v>0</v>
       </c>
-      <c r="H312" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="3" t="s">
         <v>682</v>
       </c>
       <c r="B313" s="4">
-        <v>74.3</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="C313" s="4">
-        <v>74.349999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D313" s="4">
-        <v>74.400000000000006</v>
+        <v>73.3</v>
       </c>
       <c r="E313" s="4">
-        <v>73.3</v>
-      </c>
-      <c r="F313" s="4">
         <v>73.349999999999994</v>
       </c>
+      <c r="F313" s="4" t="s">
+        <v>648</v>
+      </c>
       <c r="G313" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="H313" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:7">
       <c r="A314" s="3" t="s">
         <v>684</v>
       </c>
       <c r="B314" s="4">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="C314" s="4">
         <v>72.5</v>
       </c>
       <c r="D314" s="4">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="E314" s="4">
         <v>72</v>
       </c>
-      <c r="F314" s="4">
-        <v>72</v>
+      <c r="F314" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="H314" s="4" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:7">
       <c r="A315" s="3" t="s">
         <v>687</v>
       </c>
@@ -10999,22 +10057,19 @@
         <v>72</v>
       </c>
       <c r="D315" s="4">
-        <v>72</v>
+        <v>70.5</v>
       </c>
       <c r="E315" s="4">
         <v>70.5</v>
       </c>
-      <c r="F315" s="4">
-        <v>70.5</v>
+      <c r="F315" s="4" t="s">
+        <v>688</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H315" s="4" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
         <v>690</v>
       </c>
@@ -11031,16 +10086,13 @@
         <v>74</v>
       </c>
       <c r="F316" s="4">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G316" s="4">
         <v>0</v>
       </c>
-      <c r="H316" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
         <v>691</v>
       </c>
@@ -11048,25 +10100,22 @@
         <v>35.049999999999997</v>
       </c>
       <c r="C317" s="4">
+        <v>37</v>
+      </c>
+      <c r="D317" s="4">
         <v>35.049999999999997</v>
       </c>
-      <c r="D317" s="4">
-        <v>37</v>
-      </c>
       <c r="E317" s="4">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="F317" s="4">
         <v>36.75</v>
       </c>
+      <c r="F317" s="4" t="s">
+        <v>692</v>
+      </c>
       <c r="G317" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="H317" s="4" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
         <v>694</v>
       </c>
@@ -11083,16 +10132,13 @@
         <v>0.46</v>
       </c>
       <c r="F318" s="4">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G318" s="4">
         <v>0</v>
       </c>
-      <c r="H318" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="3" t="s">
         <v>695</v>
       </c>
@@ -11100,25 +10146,22 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C319" s="4">
-        <v>9.2100000000000009</v>
+        <v>9.25</v>
       </c>
       <c r="D319" s="4">
-        <v>9.25</v>
+        <v>9.07</v>
       </c>
       <c r="E319" s="4">
-        <v>9.07</v>
-      </c>
-      <c r="F319" s="4">
         <v>9.24</v>
       </c>
+      <c r="F319" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="G319" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H319" s="4" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
         <v>698</v>
       </c>
@@ -11135,42 +10178,36 @@
         <v>1.7</v>
       </c>
       <c r="F320" s="4">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G320" s="4">
         <v>0</v>
       </c>
-      <c r="H320" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
         <v>699</v>
       </c>
       <c r="B321" s="4">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="C321" s="4">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="D321" s="4">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="E321" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="F321" s="4">
         <v>1.25</v>
       </c>
+      <c r="F321" s="4" t="s">
+        <v>700</v>
+      </c>
       <c r="G321" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="H321" s="4" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
         <v>702</v>
       </c>
@@ -11187,94 +10224,82 @@
         <v>0.8</v>
       </c>
       <c r="F322" s="4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G322" s="4">
         <v>0</v>
       </c>
-      <c r="H322" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
         <v>703</v>
       </c>
       <c r="B323" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="C323" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="D323" s="4">
         <v>1.58</v>
-      </c>
-      <c r="C323" s="4">
-        <v>1.59</v>
-      </c>
-      <c r="D323" s="4">
-        <v>1.62</v>
       </c>
       <c r="E323" s="4">
         <v>1.58</v>
       </c>
-      <c r="F323" s="4">
-        <v>1.58</v>
+      <c r="F323" s="4" t="s">
+        <v>704</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H323" s="4" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
         <v>706</v>
       </c>
       <c r="B324" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="C324" s="4">
         <v>1.49</v>
       </c>
-      <c r="C324" s="4">
-        <v>1.48</v>
-      </c>
       <c r="D324" s="4">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="E324" s="4">
         <v>1.44</v>
       </c>
-      <c r="F324" s="4">
-        <v>1.44</v>
+      <c r="F324" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="H324" s="4" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:7">
       <c r="A325" s="3" t="s">
         <v>709</v>
       </c>
       <c r="B325" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="C325" s="4">
         <v>0.34</v>
       </c>
-      <c r="C325" s="4">
+      <c r="D325" s="4">
         <v>0.33</v>
       </c>
-      <c r="D325" s="4">
+      <c r="E325" s="4">
         <v>0.34</v>
       </c>
-      <c r="E325" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F325" s="4">
-        <v>0.34</v>
+      <c r="F325" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="H325" s="4" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
         <v>712</v>
       </c>
@@ -11291,16 +10316,13 @@
         <v>0.26</v>
       </c>
       <c r="F326" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G326" s="4">
         <v>0</v>
       </c>
-      <c r="H326" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="3" t="s">
         <v>713</v>
       </c>
@@ -11308,25 +10330,22 @@
         <v>2.9</v>
       </c>
       <c r="C327" s="4">
+        <v>3</v>
+      </c>
+      <c r="D327" s="4">
         <v>2.9</v>
       </c>
-      <c r="D327" s="4">
+      <c r="E327" s="4">
         <v>3</v>
       </c>
-      <c r="E327" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="F327" s="4">
-        <v>3</v>
+      <c r="F327" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="H327" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:7">
       <c r="A328" s="3" t="s">
         <v>716</v>
       </c>
@@ -11334,51 +10353,45 @@
         <v>0.92</v>
       </c>
       <c r="C328" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="D328" s="4">
         <v>0.92</v>
       </c>
-      <c r="D328" s="4">
+      <c r="E328" s="4">
         <v>0.99</v>
       </c>
-      <c r="E328" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="F328" s="4">
-        <v>0.99</v>
+      <c r="F328" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="H328" s="4" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:7">
       <c r="A329" s="3" t="s">
         <v>719</v>
       </c>
       <c r="B329" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="C329" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D329" s="4">
         <v>0.53</v>
       </c>
-      <c r="D329" s="4">
+      <c r="E329" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E329" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="F329" s="4">
-        <v>0.56000000000000005</v>
+      <c r="F329" s="4" t="s">
+        <v>720</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="H329" s="4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:7">
       <c r="A330" s="3" t="s">
         <v>722</v>
       </c>
@@ -11386,25 +10399,22 @@
         <v>0.223</v>
       </c>
       <c r="C330" s="4">
-        <v>0.223</v>
+        <v>0.224</v>
       </c>
       <c r="D330" s="4">
-        <v>0.224</v>
+        <v>0.216</v>
       </c>
       <c r="E330" s="4">
-        <v>0.216</v>
-      </c>
-      <c r="F330" s="4">
         <v>0.222</v>
       </c>
+      <c r="F330" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="G330" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H330" s="4" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:7">
       <c r="A331" s="3" t="s">
         <v>724</v>
       </c>
@@ -11421,16 +10431,13 @@
         <v>0.95</v>
       </c>
       <c r="F331" s="4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G331" s="4">
         <v>0</v>
       </c>
-      <c r="H331" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="3" t="s">
         <v>725</v>
       </c>
@@ -11447,21 +10454,18 @@
         <v>1</v>
       </c>
       <c r="F332" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332" s="4">
         <v>0</v>
       </c>
-      <c r="H332" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
         <v>726</v>
       </c>
       <c r="B333" s="4">
-        <v>52.8</v>
+        <v>45</v>
       </c>
       <c r="C333" s="4">
         <v>45</v>
@@ -11473,16 +10477,13 @@
         <v>45</v>
       </c>
       <c r="F333" s="4">
-        <v>45</v>
-      </c>
-      <c r="G333" s="4">
         <v>210</v>
       </c>
-      <c r="H333" s="4" t="s">
+      <c r="G333" s="4" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
         <v>728</v>
       </c>
@@ -11498,17 +10499,14 @@
       <c r="E334" s="4">
         <v>52.5</v>
       </c>
-      <c r="F334" s="4">
-        <v>52.5</v>
+      <c r="F334" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H334" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:7">
       <c r="A335" s="3" t="s">
         <v>730</v>
       </c>
@@ -11516,25 +10514,22 @@
         <v>2.79</v>
       </c>
       <c r="C335" s="4">
-        <v>2.79</v>
+        <v>3.02</v>
       </c>
       <c r="D335" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="E335" s="4">
         <v>3.02</v>
       </c>
-      <c r="E335" s="4">
-        <v>2.77</v>
-      </c>
-      <c r="F335" s="4">
-        <v>3.02</v>
+      <c r="F335" s="4" t="s">
+        <v>731</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="H335" s="4" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:7">
       <c r="A336" s="3" t="s">
         <v>733</v>
       </c>
@@ -11542,51 +10537,45 @@
         <v>0.61</v>
       </c>
       <c r="C336" s="4">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="D336" s="4">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E336" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F336" s="4">
         <v>0.63</v>
       </c>
+      <c r="F336" s="4" t="s">
+        <v>734</v>
+      </c>
       <c r="G336" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="H336" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:7">
       <c r="A337" s="3" t="s">
         <v>736</v>
       </c>
       <c r="B337" s="5">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="C337" s="5">
+        <v>1448</v>
+      </c>
+      <c r="D337" s="5">
         <v>1358</v>
       </c>
-      <c r="D337" s="5">
+      <c r="E337" s="5">
         <v>1448</v>
       </c>
-      <c r="E337" s="5">
-        <v>1358</v>
-      </c>
-      <c r="F337" s="5">
-        <v>1448</v>
+      <c r="F337" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="H337" s="4" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:7">
       <c r="A338" s="3" t="s">
         <v>739</v>
       </c>
@@ -11603,16 +10592,13 @@
         <v>43.25</v>
       </c>
       <c r="F338" s="4">
-        <v>43.25</v>
+        <v>0</v>
       </c>
       <c r="G338" s="4">
         <v>0</v>
       </c>
-      <c r="H338" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
         <v>740</v>
       </c>
@@ -11620,25 +10606,22 @@
         <v>92</v>
       </c>
       <c r="C339" s="4">
+        <v>99</v>
+      </c>
+      <c r="D339" s="4">
         <v>92</v>
       </c>
-      <c r="D339" s="4">
-        <v>99</v>
-      </c>
       <c r="E339" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F339" s="4">
-        <v>93</v>
-      </c>
-      <c r="G339" s="4">
         <v>550</v>
       </c>
-      <c r="H339" s="4" t="s">
+      <c r="G339" s="4" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:7">
       <c r="A340" s="3" t="s">
         <v>742</v>
       </c>
@@ -11655,16 +10638,13 @@
         <v>10</v>
       </c>
       <c r="F340" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G340" s="4">
         <v>0</v>
       </c>
-      <c r="H340" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="3" t="s">
         <v>743</v>
       </c>
@@ -11681,68 +10661,59 @@
         <v>10</v>
       </c>
       <c r="F341" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G341" s="4">
         <v>0</v>
       </c>
-      <c r="H341" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
         <v>744</v>
       </c>
       <c r="B342" s="4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C342" s="4">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="D342" s="4">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="E342" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="F342" s="4">
         <v>0.94</v>
       </c>
+      <c r="F342" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="G342" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="H342" s="4" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:7">
       <c r="A343" s="3" t="s">
         <v>747</v>
       </c>
       <c r="B343" s="4">
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="C343" s="4">
-        <v>86</v>
+        <v>87.6</v>
       </c>
       <c r="D343" s="4">
-        <v>87.6</v>
+        <v>85.2</v>
       </c>
       <c r="E343" s="4">
-        <v>85.2</v>
-      </c>
-      <c r="F343" s="4">
         <v>87.4</v>
       </c>
+      <c r="F343" s="4" t="s">
+        <v>748</v>
+      </c>
       <c r="G343" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H343" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:7">
       <c r="A344" s="3" t="s">
         <v>750</v>
       </c>
@@ -11759,73 +10730,64 @@
         <v>0.246</v>
       </c>
       <c r="F344" s="4">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="G344" s="4">
         <v>0</v>
       </c>
-      <c r="H344" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="3" t="s">
         <v>751</v>
       </c>
       <c r="B345" s="4">
-        <v>5.4000000000000003E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="C345" s="4">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D345" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="D345" s="4">
+      <c r="E345" s="4">
         <v>5.3E-3</v>
       </c>
-      <c r="E345" s="4">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="F345" s="4">
-        <v>5.3E-3</v>
+      <c r="F345" s="4" t="s">
+        <v>752</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="H345" s="4" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:7">
       <c r="A346" s="3" t="s">
         <v>754</v>
       </c>
       <c r="B346" s="4">
-        <v>134.9</v>
+        <v>135.9</v>
       </c>
       <c r="C346" s="4">
-        <v>135.9</v>
+        <v>137.5</v>
       </c>
       <c r="D346" s="4">
-        <v>137.5</v>
+        <v>134.1</v>
       </c>
       <c r="E346" s="4">
         <v>134.1</v>
       </c>
-      <c r="F346" s="4">
-        <v>134.1</v>
+      <c r="F346" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H346" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
         <v>757</v>
       </c>
       <c r="B347" s="4">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="C347" s="4">
         <v>0.85</v>
@@ -11836,43 +10798,37 @@
       <c r="E347" s="4">
         <v>0.85</v>
       </c>
-      <c r="F347" s="4">
-        <v>0.85</v>
+      <c r="F347" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H347" s="4" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
         <v>759</v>
       </c>
       <c r="B348" s="4">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C348" s="4">
         <v>0.63</v>
       </c>
       <c r="D348" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="E348" s="4">
         <v>0.63</v>
       </c>
-      <c r="E348" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="F348" s="4">
-        <v>0.63</v>
+      <c r="F348" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H348" s="4" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:7">
       <c r="A349" s="3" t="s">
         <v>762</v>
       </c>
@@ -11880,30 +10836,27 @@
         <v>1.62</v>
       </c>
       <c r="C349" s="4">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="D349" s="4">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="E349" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F349" s="4">
         <v>1.7</v>
       </c>
+      <c r="F349" s="4" t="s">
+        <v>763</v>
+      </c>
       <c r="G349" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="H349" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
         <v>765</v>
       </c>
       <c r="B350" s="4">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="C350" s="4">
         <v>2.6</v>
@@ -11914,121 +10867,106 @@
       <c r="E350" s="4">
         <v>2.6</v>
       </c>
-      <c r="F350" s="4">
-        <v>2.6</v>
+      <c r="F350" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="H350" s="4" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
         <v>768</v>
       </c>
       <c r="B351" s="4">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="C351" s="4">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="D351" s="4">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="E351" s="4">
         <v>1.63</v>
       </c>
-      <c r="F351" s="4">
-        <v>1.63</v>
+      <c r="F351" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="G351" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="H351" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:7">
       <c r="A352" s="3" t="s">
         <v>771</v>
       </c>
       <c r="B352" s="4">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="C352" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D352" s="4">
         <v>0.8</v>
       </c>
-      <c r="D352" s="4">
+      <c r="E352" s="4">
         <v>0.84</v>
       </c>
-      <c r="E352" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F352" s="4">
-        <v>0.84</v>
+      <c r="F352" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="H352" s="4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
         <v>774</v>
       </c>
       <c r="B353" s="4">
-        <v>15.9</v>
+        <v>12.84</v>
       </c>
       <c r="C353" s="4">
         <v>12.84</v>
       </c>
       <c r="D353" s="4">
-        <v>12.84</v>
+        <v>12.8</v>
       </c>
       <c r="E353" s="4">
         <v>12.8</v>
       </c>
       <c r="F353" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="G353" s="4">
         <v>700</v>
       </c>
-      <c r="H353" s="4" t="s">
+      <c r="G353" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
         <v>776</v>
       </c>
       <c r="B354" s="4">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="C354" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="D354" s="4">
         <v>2.57</v>
       </c>
-      <c r="D354" s="4">
-        <v>2.72</v>
-      </c>
       <c r="E354" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="F354" s="4">
         <v>2.7</v>
       </c>
+      <c r="F354" s="4" t="s">
+        <v>777</v>
+      </c>
       <c r="G354" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="H354" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
         <v>779</v>
       </c>
@@ -12045,16 +10983,13 @@
         <v>0.23</v>
       </c>
       <c r="F355" s="4">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G355" s="4">
         <v>0</v>
       </c>
-      <c r="H355" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
         <v>780</v>
       </c>
@@ -12062,51 +10997,45 @@
         <v>29.6</v>
       </c>
       <c r="C356" s="4">
+        <v>30.65</v>
+      </c>
+      <c r="D356" s="4">
         <v>29.6</v>
       </c>
-      <c r="D356" s="4">
-        <v>30.65</v>
-      </c>
       <c r="E356" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="F356" s="4">
         <v>30.6</v>
       </c>
+      <c r="F356" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="G356" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H356" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
         <v>782</v>
       </c>
       <c r="B357" s="4">
-        <v>0.40500000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="C357" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D357" s="4">
         <v>0.43</v>
       </c>
-      <c r="D357" s="4">
+      <c r="E357" s="4">
         <v>0.45</v>
       </c>
-      <c r="E357" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="F357" s="4">
-        <v>0.45</v>
+      <c r="F357" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H357" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
         <v>784</v>
       </c>
@@ -12122,17 +11051,14 @@
       <c r="E358" s="4">
         <v>0.26</v>
       </c>
-      <c r="F358" s="4">
-        <v>0.26</v>
+      <c r="F358" s="4" t="s">
+        <v>785</v>
       </c>
       <c r="G358" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="H358" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
         <v>787</v>
       </c>
@@ -12149,12 +11075,9 @@
         <v>0.127</v>
       </c>
       <c r="F359" s="4">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="G359" s="4">
-        <v>0</v>
-      </c>
-      <c r="H359" s="4">
         <v>0</v>
       </c>
     </row>
